--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,296 +474,320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.3008579558616162</v>
+        <v>-0.8350711388588363</v>
       </c>
       <c r="C2">
-        <v>0.8765574948681092</v>
+        <v>0.2201878744147194</v>
       </c>
       <c r="D2">
-        <v>1.952297331720331</v>
+        <v>0.4384779472729292</v>
       </c>
       <c r="E2">
-        <v>1.510493160416715</v>
+        <v>1.529210744895579</v>
       </c>
       <c r="F2">
-        <v>0.7007203280930838</v>
+        <v>1.94593406307078</v>
       </c>
       <c r="G2">
-        <v>0.9808517754788966</v>
+        <v>0.3611512668594514</v>
       </c>
       <c r="H2">
-        <v>1.019718840708109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.308369230529848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.575699539006493</v>
+        <v>-0.0806700814468968</v>
       </c>
       <c r="C3">
-        <v>1.651439375858714</v>
+        <v>0.137619991411313</v>
       </c>
       <c r="D3">
-        <v>1.209635204555099</v>
+        <v>1.228352789033963</v>
       </c>
       <c r="E3">
-        <v>0.3998623722314676</v>
+        <v>1.645076107209164</v>
       </c>
       <c r="F3">
-        <v>0.6799938196172803</v>
+        <v>0.06029331099783519</v>
       </c>
       <c r="G3">
-        <v>0.7188608848464924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>1.007511274668232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>1.075739836852222</v>
+        <v>-0.43807954759518</v>
       </c>
       <c r="C4">
-        <v>0.6339356655486057</v>
+        <v>0.6526532500274698</v>
       </c>
       <c r="D4">
-        <v>-0.1758371667750253</v>
+        <v>1.069376568202671</v>
       </c>
       <c r="E4">
-        <v>0.1042942806107874</v>
+        <v>-0.5154062280086578</v>
       </c>
       <c r="F4">
-        <v>0.1431613458399994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.4318117356617392</v>
+      </c>
+      <c r="G4">
+        <v>0.3521176394643107</v>
+      </c>
+      <c r="H4">
+        <v>0.06357296580725347</v>
+      </c>
+      <c r="I4">
+        <v>0.05403164090613188</v>
+      </c>
+      <c r="J4">
+        <v>-0.9652956092697305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.4418041713036158</v>
+        <v>-0.4230865868247518</v>
       </c>
       <c r="C5">
-        <v>-1.251577003627247</v>
+        <v>-0.006363268649550946</v>
       </c>
       <c r="D5">
-        <v>-0.9714455562414341</v>
+        <v>-1.591146064860879</v>
       </c>
       <c r="E5">
-        <v>-0.9325784910122221</v>
+        <v>-0.6439281011904823</v>
       </c>
       <c r="F5">
-        <v>-1.041290704127462</v>
+        <v>-0.7236221973879109</v>
       </c>
       <c r="G5">
-        <v>-0.8810403216529747</v>
+        <v>-1.012166871044968</v>
       </c>
       <c r="H5">
-        <v>-0.9730921872674398</v>
+        <v>-1.02170819594609</v>
       </c>
       <c r="I5">
-        <v>-1.189299325545988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-2.041035446121952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.8097728323236311</v>
+        <v>0.4354409026540649</v>
       </c>
       <c r="C6">
-        <v>-0.5296413849378183</v>
+        <v>-1.149341893557263</v>
       </c>
       <c r="D6">
-        <v>-0.4907743197086063</v>
+        <v>-0.2021239298868664</v>
       </c>
       <c r="E6">
-        <v>-0.5994865328238461</v>
+        <v>-0.281818026084295</v>
       </c>
       <c r="F6">
-        <v>-0.4392361503493589</v>
+        <v>-0.5703626997413522</v>
       </c>
       <c r="G6">
-        <v>-0.531288015963824</v>
+        <v>-0.5799040246424738</v>
       </c>
       <c r="H6">
-        <v>-0.7474951542423725</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-1.599231274818336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.2801314473858127</v>
+        <v>-0.3395690612336324</v>
       </c>
       <c r="C7">
-        <v>0.3189985126150248</v>
+        <v>0.6076489024367646</v>
       </c>
       <c r="D7">
-        <v>0.2102862994997849</v>
+        <v>0.527954806239336</v>
       </c>
       <c r="E7">
-        <v>0.3705366819742721</v>
+        <v>0.2394101325822788</v>
       </c>
       <c r="F7">
-        <v>0.278484816359807</v>
+        <v>0.2298688076811572</v>
       </c>
       <c r="G7">
-        <v>0.06227767808125861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-0.7894584424947051</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03886706522921202</v>
+        <v>0.3275174550509519</v>
       </c>
       <c r="C8">
-        <v>-0.0698451478860278</v>
+        <v>0.2478233588535233</v>
       </c>
       <c r="D8">
-        <v>0.09040523458845939</v>
+        <v>-0.04072131480353391</v>
       </c>
       <c r="E8">
-        <v>-0.0016466310260057</v>
+        <v>-0.05026263970465549</v>
       </c>
       <c r="F8">
-        <v>-0.2178537693045541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-1.069589889880518</v>
+      </c>
+      <c r="G8">
+        <v>-1.047781072492029</v>
+      </c>
+      <c r="H8">
+        <v>0.4911891579199903</v>
+      </c>
+      <c r="I8">
+        <v>-0.4608111822815033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.1087122131152398</v>
+        <v>0.2089562936243113</v>
       </c>
       <c r="C9">
-        <v>0.05153816935924738</v>
+        <v>-0.07958838003274593</v>
       </c>
       <c r="D9">
-        <v>-0.04051369625521772</v>
+        <v>-0.08912970493386752</v>
       </c>
       <c r="E9">
-        <v>-0.2567208345337662</v>
+        <v>-1.10845695510973</v>
       </c>
       <c r="F9">
-        <v>-0.5742415209739846</v>
+        <v>-1.086648137721241</v>
       </c>
       <c r="G9">
-        <v>-0.2820165177624289</v>
+        <v>0.4523220926907783</v>
       </c>
       <c r="H9">
-        <v>-0.2881617661031299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.4996782475107153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.1602503824744872</v>
+        <v>0.02912383308249389</v>
       </c>
       <c r="C10">
-        <v>0.0681985168600221</v>
+        <v>0.0195825081813723</v>
       </c>
       <c r="D10">
-        <v>-0.1480086214185263</v>
+        <v>-0.99974474199449</v>
       </c>
       <c r="E10">
-        <v>-0.4655293078587448</v>
+        <v>-0.9779359246060011</v>
       </c>
       <c r="F10">
-        <v>-0.1733043046471891</v>
+        <v>0.5610343058060181</v>
       </c>
       <c r="G10">
-        <v>-0.1794495529878901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.3909660343954755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.0920518656144651</v>
+        <v>-0.1406678742931149</v>
       </c>
       <c r="C11">
-        <v>-0.3082590038930135</v>
+        <v>-1.159995124468977</v>
       </c>
       <c r="D11">
-        <v>-0.625779690333232</v>
+        <v>-1.138186307080488</v>
       </c>
       <c r="E11">
-        <v>-0.3335546871216763</v>
+        <v>0.4007839233315309</v>
       </c>
       <c r="F11">
-        <v>-0.3396999354623773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.5512164168699627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.2162071382785484</v>
+        <v>-1.067943258854512</v>
       </c>
       <c r="C12">
-        <v>-0.5337278247187669</v>
+        <v>-1.046134441466023</v>
       </c>
       <c r="D12">
-        <v>-0.2415028215072112</v>
+        <v>0.492835788945996</v>
       </c>
       <c r="E12">
-        <v>-0.2476480698479122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-0.4591645512554976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.3175206864402185</v>
+        <v>-0.8299273031874748</v>
       </c>
       <c r="C13">
-        <v>-0.0252956832286628</v>
+        <v>0.7090429272245444</v>
       </c>
       <c r="D13">
-        <v>-0.03144093156936381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-0.2429574129769492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.2922250032115557</v>
+        <v>1.026563613664763</v>
       </c>
       <c r="C14">
-        <v>0.2860797548708547</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.0745632734632693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.006145248340701015</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-0.2176617297482864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -483,25 +483,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.8350711388588363</v>
+        <v>0.3008579558616162</v>
       </c>
       <c r="C2">
-        <v>0.2201878744147194</v>
+        <v>0.8765574948681092</v>
       </c>
       <c r="D2">
-        <v>0.4384779472729292</v>
+        <v>1.952297331720331</v>
       </c>
       <c r="E2">
-        <v>1.529210744895579</v>
+        <v>1.510493160416715</v>
       </c>
       <c r="F2">
-        <v>1.94593406307078</v>
+        <v>0.7007203280930838</v>
       </c>
       <c r="G2">
-        <v>0.3611512668594514</v>
+        <v>0.9808517754788966</v>
       </c>
       <c r="H2">
-        <v>1.308369230529848</v>
+        <v>1.019718840708109</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -509,22 +509,22 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.0806700814468968</v>
+        <v>0.575699539006493</v>
       </c>
       <c r="C3">
-        <v>0.137619991411313</v>
+        <v>1.651439375858714</v>
       </c>
       <c r="D3">
-        <v>1.228352789033963</v>
+        <v>1.209635204555099</v>
       </c>
       <c r="E3">
-        <v>1.645076107209164</v>
+        <v>0.3998623722314676</v>
       </c>
       <c r="F3">
-        <v>0.06029331099783519</v>
+        <v>0.6799938196172803</v>
       </c>
       <c r="G3">
-        <v>1.007511274668232</v>
+        <v>0.7188608848464924</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.43807954759518</v>
+        <v>1.075739836852222</v>
       </c>
       <c r="C4">
-        <v>0.6526532500274698</v>
+        <v>0.6339356655486057</v>
       </c>
       <c r="D4">
-        <v>1.069376568202671</v>
+        <v>-0.1758371667750253</v>
       </c>
       <c r="E4">
-        <v>-0.5154062280086578</v>
+        <v>0.1042942806107874</v>
       </c>
       <c r="F4">
-        <v>0.4318117356617392</v>
+        <v>0.1431613458399994</v>
       </c>
       <c r="G4">
-        <v>0.3521176394643107</v>
+        <v>0.03444913272475958</v>
       </c>
       <c r="H4">
-        <v>0.06357296580725347</v>
+        <v>0.1946995151992468</v>
       </c>
       <c r="I4">
-        <v>0.05403164090613188</v>
+        <v>0.1026476495847817</v>
       </c>
       <c r="J4">
-        <v>-0.9652956092697305</v>
+        <v>-0.1135594886937667</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -564,28 +564,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.4230865868247518</v>
+        <v>-0.4418041713036158</v>
       </c>
       <c r="C5">
-        <v>-0.006363268649550946</v>
+        <v>-1.251577003627247</v>
       </c>
       <c r="D5">
-        <v>-1.591146064860879</v>
+        <v>-0.9714455562414341</v>
       </c>
       <c r="E5">
-        <v>-0.6439281011904823</v>
+        <v>-0.9325784910122221</v>
       </c>
       <c r="F5">
-        <v>-0.7236221973879109</v>
+        <v>-1.041290704127462</v>
       </c>
       <c r="G5">
-        <v>-1.012166871044968</v>
+        <v>-0.8810403216529747</v>
       </c>
       <c r="H5">
-        <v>-1.02170819594609</v>
+        <v>-0.9730921872674398</v>
       </c>
       <c r="I5">
-        <v>-2.041035446121952</v>
+        <v>-1.189299325545988</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -593,25 +593,25 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.4354409026540649</v>
+        <v>-0.8097728323236311</v>
       </c>
       <c r="C6">
-        <v>-1.149341893557263</v>
+        <v>-0.5296413849378183</v>
       </c>
       <c r="D6">
-        <v>-0.2021239298868664</v>
+        <v>-0.4907743197086063</v>
       </c>
       <c r="E6">
-        <v>-0.281818026084295</v>
+        <v>-0.5994865328238461</v>
       </c>
       <c r="F6">
-        <v>-0.5703626997413522</v>
+        <v>-0.4392361503493589</v>
       </c>
       <c r="G6">
-        <v>-0.5799040246424738</v>
+        <v>-0.531288015963824</v>
       </c>
       <c r="H6">
-        <v>-1.599231274818336</v>
+        <v>-0.7474951542423725</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,22 +619,22 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.3395690612336324</v>
+        <v>0.2801314473858127</v>
       </c>
       <c r="C7">
-        <v>0.6076489024367646</v>
+        <v>0.3189985126150248</v>
       </c>
       <c r="D7">
-        <v>0.527954806239336</v>
+        <v>0.2102862994997849</v>
       </c>
       <c r="E7">
-        <v>0.2394101325822788</v>
+        <v>0.3705366819742721</v>
       </c>
       <c r="F7">
-        <v>0.2298688076811572</v>
+        <v>0.278484816359807</v>
       </c>
       <c r="G7">
-        <v>-0.7894584424947051</v>
+        <v>0.06227767808125861</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,28 +642,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.3275174550509519</v>
+        <v>0.03886706522921202</v>
       </c>
       <c r="C8">
-        <v>0.2478233588535233</v>
+        <v>-0.0698451478860278</v>
       </c>
       <c r="D8">
-        <v>-0.04072131480353391</v>
+        <v>0.09040523458845939</v>
       </c>
       <c r="E8">
-        <v>-0.05026263970465549</v>
+        <v>-0.0016466310260057</v>
       </c>
       <c r="F8">
-        <v>-1.069589889880518</v>
+        <v>-0.2178537693045541</v>
       </c>
       <c r="G8">
-        <v>-1.047781072492029</v>
+        <v>-0.5353744557447726</v>
       </c>
       <c r="H8">
-        <v>0.4911891579199903</v>
+        <v>-0.2431494525332169</v>
       </c>
       <c r="I8">
-        <v>-0.4608111822815033</v>
+        <v>-0.2492947008739179</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -671,25 +671,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.2089562936243113</v>
+        <v>-0.1087122131152398</v>
       </c>
       <c r="C9">
-        <v>-0.07958838003274593</v>
+        <v>0.05153816935924738</v>
       </c>
       <c r="D9">
-        <v>-0.08912970493386752</v>
+        <v>-0.04051369625521772</v>
       </c>
       <c r="E9">
-        <v>-1.10845695510973</v>
+        <v>-0.2567208345337662</v>
       </c>
       <c r="F9">
-        <v>-1.086648137721241</v>
+        <v>-0.5742415209739846</v>
       </c>
       <c r="G9">
-        <v>0.4523220926907783</v>
+        <v>-0.2820165177624289</v>
       </c>
       <c r="H9">
-        <v>-0.4996782475107153</v>
+        <v>-0.2881617661031299</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -697,22 +697,22 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02912383308249389</v>
+        <v>0.1602503824744872</v>
       </c>
       <c r="C10">
-        <v>0.0195825081813723</v>
+        <v>0.0681985168600221</v>
       </c>
       <c r="D10">
-        <v>-0.99974474199449</v>
+        <v>-0.1480086214185263</v>
       </c>
       <c r="E10">
-        <v>-0.9779359246060011</v>
+        <v>-0.4655293078587448</v>
       </c>
       <c r="F10">
-        <v>0.5610343058060181</v>
+        <v>-0.1733043046471891</v>
       </c>
       <c r="G10">
-        <v>-0.3909660343954755</v>
+        <v>-0.1794495529878901</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -720,19 +720,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.1406678742931149</v>
+        <v>-0.0920518656144651</v>
       </c>
       <c r="C11">
-        <v>-1.159995124468977</v>
+        <v>-0.3082590038930135</v>
       </c>
       <c r="D11">
-        <v>-1.138186307080488</v>
+        <v>-0.625779690333232</v>
       </c>
       <c r="E11">
-        <v>0.4007839233315309</v>
+        <v>-0.3335546871216763</v>
       </c>
       <c r="F11">
-        <v>-0.5512164168699627</v>
+        <v>-0.3396999354623773</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -740,16 +740,16 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-1.067943258854512</v>
+        <v>-0.2162071382785484</v>
       </c>
       <c r="C12">
-        <v>-1.046134441466023</v>
+        <v>-0.5337278247187669</v>
       </c>
       <c r="D12">
-        <v>0.492835788945996</v>
+        <v>-0.2415028215072112</v>
       </c>
       <c r="E12">
-        <v>-0.4591645512554976</v>
+        <v>-0.2476480698479122</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -757,13 +757,13 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.8299273031874748</v>
+        <v>-0.3175206864402185</v>
       </c>
       <c r="C13">
-        <v>0.7090429272245444</v>
+        <v>-0.0252956832286628</v>
       </c>
       <c r="D13">
-        <v>-0.2429574129769492</v>
+        <v>-0.03144093156936381</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -771,10 +771,10 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>1.026563613664763</v>
+        <v>0.2922250032115557</v>
       </c>
       <c r="C14">
-        <v>0.0745632734632693</v>
+        <v>0.2860797548708547</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.2176617297482864</v>
+        <v>-0.006145248340701015</v>
       </c>
     </row>
     <row r="16" spans="1:10">

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -41,6 +41,120 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -443,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,317 +591,1663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>-1.016970231101027</v>
+      </c>
+      <c r="C2">
+        <v>1.856303680036476</v>
+      </c>
+      <c r="D2">
+        <v>-0.4261503456075</v>
+      </c>
+      <c r="E2">
+        <v>0.9520335363487078</v>
+      </c>
+      <c r="F2">
+        <v>2.628764577266821</v>
+      </c>
+      <c r="G2">
+        <v>2.311804596319448</v>
+      </c>
+      <c r="H2">
+        <v>-0.3645642242167779</v>
+      </c>
+      <c r="I2">
+        <v>2.364071468851137</v>
+      </c>
+      <c r="J2">
+        <v>-0.4880015757602221</v>
+      </c>
+      <c r="K2">
+        <v>-1.044484822570396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.5908198854935269</v>
+      </c>
+      <c r="C3">
+        <v>1.969003767449735</v>
+      </c>
+      <c r="D3">
+        <v>3.645734808367848</v>
+      </c>
+      <c r="E3">
+        <v>3.328774827420475</v>
+      </c>
+      <c r="F3">
+        <v>0.652406006884249</v>
+      </c>
+      <c r="G3">
+        <v>3.381041699952164</v>
+      </c>
+      <c r="H3">
+        <v>0.5289686553408048</v>
+      </c>
+      <c r="I3">
+        <v>-0.02751459146936908</v>
+      </c>
+      <c r="J3">
+        <v>1.510893826230975</v>
+      </c>
+      <c r="K3">
+        <v>2.074527984463444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3.054914922874321</v>
+      </c>
+      <c r="C4">
+        <v>2.737954941926948</v>
+      </c>
+      <c r="D4">
+        <v>0.06158612139072206</v>
+      </c>
+      <c r="E4">
+        <v>2.790221814458637</v>
+      </c>
+      <c r="F4">
+        <v>-0.06185123015272209</v>
+      </c>
+      <c r="G4">
+        <v>-0.618334476962896</v>
+      </c>
+      <c r="H4">
+        <v>0.920073940737448</v>
+      </c>
+      <c r="I4">
+        <v>1.483708098969917</v>
+      </c>
+      <c r="J4">
+        <v>0.2402435473108151</v>
+      </c>
+      <c r="K4">
+        <v>1.120073940737448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-2.993328801483599</v>
+      </c>
+      <c r="C5">
+        <v>-0.2646931084156841</v>
+      </c>
+      <c r="D5">
+        <v>-3.116766153027043</v>
+      </c>
+      <c r="E5">
+        <v>-3.673249399837217</v>
+      </c>
+      <c r="F5">
+        <v>-2.134840982136873</v>
+      </c>
+      <c r="G5">
+        <v>-1.571206823904404</v>
+      </c>
+      <c r="H5">
+        <v>-2.814671375563506</v>
+      </c>
+      <c r="I5">
+        <v>-1.934840982136873</v>
+      </c>
+      <c r="J5">
+        <v>-2.134840982136873</v>
+      </c>
+      <c r="K5">
+        <v>-1.965208663802656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.1234373515434442</v>
+      </c>
+      <c r="C6">
+        <v>-0.6799205983536181</v>
+      </c>
+      <c r="D6">
+        <v>0.8584878193467259</v>
+      </c>
+      <c r="E6">
+        <v>1.422121977579195</v>
+      </c>
+      <c r="F6">
+        <v>0.178657425920093</v>
+      </c>
+      <c r="G6">
+        <v>1.058487819346726</v>
+      </c>
+      <c r="H6">
+        <v>0.8584878193467259</v>
+      </c>
+      <c r="I6">
+        <v>1.028120137680943</v>
+      </c>
+      <c r="J6">
+        <v>1.558487819346726</v>
+      </c>
+      <c r="K6">
+        <v>1.663050468111208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.9819251708901701</v>
+      </c>
+      <c r="C7">
+        <v>1.545559329122639</v>
+      </c>
+      <c r="D7">
+        <v>0.3020947774635372</v>
+      </c>
+      <c r="E7">
+        <v>1.18192517089017</v>
+      </c>
+      <c r="F7">
+        <v>0.9819251708901701</v>
+      </c>
+      <c r="G7">
+        <v>1.151557489224387</v>
+      </c>
+      <c r="H7">
+        <v>1.68192517089017</v>
+      </c>
+      <c r="I7">
+        <v>1.786487819654653</v>
+      </c>
+      <c r="J7">
+        <v>1.38192517089017</v>
+      </c>
+      <c r="K7">
+        <v>1.400397236894861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-0.6798303934266329</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.1696323183342173</v>
+      </c>
+      <c r="F8">
+        <v>0.7</v>
+      </c>
+      <c r="G8">
+        <v>0.8045626487644824</v>
+      </c>
+      <c r="H8">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <v>0.4184720660046907</v>
+      </c>
+      <c r="J8">
+        <v>0.390764013820737</v>
+      </c>
+      <c r="K8">
+        <v>0.01365250394267431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0.6798303934266329</v>
+      </c>
+      <c r="C9">
+        <v>0.8494627117608502</v>
+      </c>
+      <c r="D9">
+        <v>1.379830393426633</v>
+      </c>
+      <c r="E9">
+        <v>1.484393042191115</v>
+      </c>
+      <c r="F9">
+        <v>1.079830393426633</v>
+      </c>
+      <c r="G9">
+        <v>1.098302459431324</v>
+      </c>
+      <c r="H9">
+        <v>1.07059440724737</v>
+      </c>
+      <c r="I9">
+        <v>0.6934828973693072</v>
+      </c>
+      <c r="J9">
+        <v>0.38341059906206</v>
+      </c>
+      <c r="K9">
+        <v>1.398155394996834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>0.8045626487644824</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <v>0.4184720660046907</v>
+      </c>
+      <c r="F10">
+        <v>0.390764013820737</v>
+      </c>
+      <c r="G10">
+        <v>0.01365250394267431</v>
+      </c>
+      <c r="H10">
+        <v>-0.2964197943645729</v>
+      </c>
+      <c r="I10">
+        <v>0.7183250015702015</v>
+      </c>
+      <c r="J10">
+        <v>-1.452186157158073</v>
+      </c>
+      <c r="K10">
+        <v>0.5726927221574073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-0.3</v>
+      </c>
+      <c r="C11">
+        <v>-0.2815279339953093</v>
+      </c>
+      <c r="D11">
+        <v>-0.309235986179263</v>
+      </c>
+      <c r="E11">
+        <v>-0.6863474960573257</v>
+      </c>
+      <c r="F11">
+        <v>-0.996419794364573</v>
+      </c>
+      <c r="G11">
+        <v>0.0183250015702015</v>
+      </c>
+      <c r="H11">
+        <v>-2.152186157158073</v>
+      </c>
+      <c r="I11">
+        <v>-0.1273072778425927</v>
+      </c>
+      <c r="J11">
+        <v>-0.1270022392231624</v>
+      </c>
+      <c r="K11">
+        <v>-1.350807574684342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>-0.009235986179263023</v>
+      </c>
+      <c r="C12">
+        <v>-0.3863474960573257</v>
+      </c>
+      <c r="D12">
+        <v>-0.6964197943645729</v>
+      </c>
+      <c r="E12">
+        <v>0.3183250015702015</v>
+      </c>
+      <c r="F12">
+        <v>-1.852186157158073</v>
+      </c>
+      <c r="G12">
+        <v>0.1726927221574073</v>
+      </c>
+      <c r="H12">
+        <v>0.1729977607768376</v>
+      </c>
+      <c r="I12">
+        <v>-1.050807574684342</v>
+      </c>
+      <c r="J12">
+        <v>-0.5056288600178789</v>
+      </c>
+      <c r="K12">
+        <v>0.2184803162966205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-0.6871838081853099</v>
+      </c>
+      <c r="C13">
+        <v>0.3275609877494645</v>
+      </c>
+      <c r="D13">
+        <v>-1.84295017097881</v>
+      </c>
+      <c r="E13">
+        <v>0.1819287083366703</v>
+      </c>
+      <c r="F13">
+        <v>0.1822337469561006</v>
+      </c>
+      <c r="G13">
+        <v>-1.041571588505079</v>
+      </c>
+      <c r="H13">
+        <v>-0.4963928738386159</v>
+      </c>
+      <c r="I13">
+        <v>0.2277163024758835</v>
+      </c>
+      <c r="J13">
+        <v>-0.7142981232558725</v>
+      </c>
+      <c r="K13">
+        <v>-0.8421524812879255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1.1557663627935</v>
+      </c>
+      <c r="C14">
+        <v>0.8691125165219802</v>
+      </c>
+      <c r="D14">
+        <v>0.8694175551414105</v>
+      </c>
+      <c r="E14">
+        <v>-0.354387780319769</v>
+      </c>
+      <c r="F14">
+        <v>0.190790934346694</v>
+      </c>
+      <c r="G14">
+        <v>0.9149001106611934</v>
+      </c>
+      <c r="H14">
+        <v>-0.02711431507056261</v>
+      </c>
+      <c r="I14">
+        <v>-0.1549686731026156</v>
+      </c>
+      <c r="J14">
+        <v>-0.1102536290315754</v>
+      </c>
+      <c r="K14">
+        <v>0.8352425558547338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>2.02518391793491</v>
+      </c>
+      <c r="C15">
+        <v>0.8013785824737312</v>
+      </c>
+      <c r="D15">
+        <v>1.346557297140194</v>
+      </c>
+      <c r="E15">
+        <v>2.070666473454694</v>
+      </c>
+      <c r="F15">
+        <v>1.128652047722938</v>
+      </c>
+      <c r="G15">
+        <v>1.000797689690885</v>
+      </c>
+      <c r="H15">
+        <v>1.045512733761925</v>
+      </c>
+      <c r="I15">
+        <v>1.991008918648234</v>
+      </c>
+      <c r="J15">
+        <v>1.370258333097198</v>
+      </c>
+      <c r="K15">
+        <v>1.189259644257845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.6786266207947165</v>
+      </c>
+      <c r="C16">
+        <v>0.04548255551978292</v>
+      </c>
+      <c r="D16">
+        <v>-0.8965318702119731</v>
+      </c>
+      <c r="E16">
+        <v>-1.024386228244026</v>
+      </c>
+      <c r="F16">
+        <v>-0.9796711841729859</v>
+      </c>
+      <c r="G16">
+        <v>-0.03417499928667669</v>
+      </c>
+      <c r="H16">
+        <v>-0.6549255848377129</v>
+      </c>
+      <c r="I16">
+        <v>-0.8359242736770653</v>
+      </c>
+      <c r="J16">
+        <v>-0.337636823720473</v>
+      </c>
+      <c r="K16">
+        <v>-1.337698499194801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-0.2179052494172566</v>
+      </c>
+      <c r="C17">
+        <v>-0.3457596074493097</v>
+      </c>
+      <c r="D17">
+        <v>-0.3010445633782695</v>
+      </c>
+      <c r="E17">
+        <v>0.6444516215080398</v>
+      </c>
+      <c r="F17">
+        <v>0.02370103595700357</v>
+      </c>
+      <c r="G17">
+        <v>-0.1572976528823489</v>
+      </c>
+      <c r="H17">
+        <v>0.3409897970742435</v>
+      </c>
+      <c r="I17">
+        <v>-0.6590718784000842</v>
+      </c>
+      <c r="J17">
+        <v>0.07390479252633497</v>
+      </c>
+      <c r="K17">
+        <v>0.369711816869375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-0.08313931396101282</v>
+      </c>
+      <c r="C18">
+        <v>0.8623568709252964</v>
+      </c>
+      <c r="D18">
+        <v>0.2416062853742602</v>
+      </c>
+      <c r="E18">
+        <v>0.06060759653490777</v>
+      </c>
+      <c r="F18">
+        <v>0.5588950464915001</v>
+      </c>
+      <c r="G18">
+        <v>-0.4411666289828275</v>
+      </c>
+      <c r="H18">
+        <v>0.2918100419435916</v>
+      </c>
+      <c r="I18">
+        <v>0.5876170662866316</v>
+      </c>
+      <c r="J18">
+        <v>0.3378071961977303</v>
+      </c>
+      <c r="K18">
+        <v>-0.1528028470799825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>0.324745599335273</v>
+      </c>
+      <c r="C19">
+        <v>0.1437469104959206</v>
+      </c>
+      <c r="D19">
+        <v>0.6420343604525129</v>
+      </c>
+      <c r="E19">
+        <v>-0.3580273150218147</v>
+      </c>
+      <c r="F19">
+        <v>0.3749493559046044</v>
+      </c>
+      <c r="G19">
+        <v>0.6707563802476444</v>
+      </c>
+      <c r="H19">
+        <v>0.4209465101587431</v>
+      </c>
+      <c r="I19">
+        <v>-0.06966353311896967</v>
+      </c>
+      <c r="J19">
+        <v>0.006673423396148292</v>
+      </c>
+      <c r="K19">
+        <v>0.7979492638138908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.3172887611172399</v>
+      </c>
+      <c r="C20">
+        <v>-0.6827729143570878</v>
+      </c>
+      <c r="D20">
+        <v>0.0502037565693314</v>
+      </c>
+      <c r="E20">
+        <v>0.3460107809123714</v>
+      </c>
+      <c r="F20">
+        <v>0.0962009108234701</v>
+      </c>
+      <c r="G20">
+        <v>-0.3944091324542427</v>
+      </c>
+      <c r="H20">
+        <v>-0.3180721759391247</v>
+      </c>
+      <c r="I20">
+        <v>0.4732036644786177</v>
+      </c>
+      <c r="J20">
+        <v>0.2819278240608753</v>
+      </c>
+      <c r="K20">
+        <v>-0.005926056730274409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.2670850045479085</v>
+      </c>
+      <c r="C21">
+        <v>0.0287220197951315</v>
+      </c>
+      <c r="D21">
+        <v>-0.2210878502937698</v>
+      </c>
+      <c r="E21">
+        <v>-0.7116978935714826</v>
+      </c>
+      <c r="F21">
+        <v>-0.6353609370563646</v>
+      </c>
+      <c r="G21">
+        <v>0.1559149033613778</v>
+      </c>
+      <c r="H21">
+        <v>-0.03536093705636462</v>
+      </c>
+      <c r="I21">
+        <v>-0.3232148178475143</v>
+      </c>
+      <c r="J21">
+        <v>0.568969322897556</v>
+      </c>
+      <c r="K21">
+        <v>-0.5537163142271027</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.04599715425413869</v>
+      </c>
+      <c r="C22">
+        <v>-0.4446128890235741</v>
+      </c>
+      <c r="D22">
+        <v>-0.3682759325084561</v>
+      </c>
+      <c r="E22">
+        <v>0.4229999079092863</v>
+      </c>
+      <c r="F22">
+        <v>0.2317240674915439</v>
+      </c>
+      <c r="G22">
+        <v>-0.05612981329960581</v>
+      </c>
+      <c r="H22">
+        <v>0.8360543274454645</v>
+      </c>
+      <c r="I22">
+        <v>-0.2866313096791941</v>
+      </c>
+      <c r="J22">
+        <v>1.931724067491544</v>
+      </c>
+      <c r="K22">
+        <v>7.662768200698551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.7404199133666141</v>
+      </c>
+      <c r="C23">
+        <v>-0.6640829568514961</v>
+      </c>
+      <c r="D23">
+        <v>0.1271928835662463</v>
+      </c>
+      <c r="E23">
+        <v>-0.06408295685149612</v>
+      </c>
+      <c r="F23">
+        <v>-0.3519368376426458</v>
+      </c>
+      <c r="G23">
+        <v>0.5402473031024244</v>
+      </c>
+      <c r="H23">
+        <v>-0.5824383340222341</v>
+      </c>
+      <c r="I23">
+        <v>1.635917043148504</v>
+      </c>
+      <c r="J23">
+        <v>7.366961176355511</v>
+      </c>
+      <c r="K23">
+        <v>-4.593484594942814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.4142730867625948</v>
+      </c>
+      <c r="C24">
+        <v>0.3770027536551476</v>
+      </c>
+      <c r="D24">
+        <v>0.1857269132374052</v>
+      </c>
+      <c r="E24">
+        <v>-0.1021269675537445</v>
+      </c>
+      <c r="F24">
+        <v>0.7900571731913257</v>
+      </c>
+      <c r="G24">
+        <v>-0.3326284639333328</v>
+      </c>
+      <c r="H24">
+        <v>1.885726913237405</v>
+      </c>
+      <c r="I24">
+        <v>7.616771046444412</v>
+      </c>
+      <c r="J24">
+        <v>-4.343674724853913</v>
+      </c>
+      <c r="K24">
+        <v>1.276239649633794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.8676127969328604</v>
+      </c>
+      <c r="C25">
+        <v>0.676336956515118</v>
+      </c>
+      <c r="D25">
+        <v>0.3884830757239683</v>
+      </c>
+      <c r="E25">
+        <v>1.280667216469038</v>
+      </c>
+      <c r="F25">
+        <v>0.15798157934438</v>
+      </c>
+      <c r="G25">
+        <v>2.376336956515118</v>
+      </c>
+      <c r="H25">
+        <v>8.107381089722125</v>
+      </c>
+      <c r="I25">
+        <v>-3.8530646815762</v>
+      </c>
+      <c r="J25">
+        <v>1.766849692911507</v>
+      </c>
+      <c r="K25">
+        <v>2.919030737797328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.3121461192088503</v>
+      </c>
+      <c r="D26">
+        <v>1.204330259953921</v>
+      </c>
+      <c r="E26">
+        <v>0.08164462282926199</v>
+      </c>
+      <c r="F26">
+        <v>2.3</v>
+      </c>
+      <c r="G26">
+        <v>8.031044133207008</v>
+      </c>
+      <c r="H26">
+        <v>-3.929401638091318</v>
+      </c>
+      <c r="I26">
+        <v>1.690512736396389</v>
+      </c>
+      <c r="J26">
+        <v>2.84269378128221</v>
+      </c>
+      <c r="K26">
+        <v>-1.293024636165651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.4791297212088921</v>
+      </c>
+      <c r="C27">
+        <v>0.4130544195361782</v>
+      </c>
+      <c r="D27">
+        <v>-0.7096312175884805</v>
+      </c>
+      <c r="E27">
+        <v>1.508724159582258</v>
+      </c>
+      <c r="F27">
+        <v>7.239768292789265</v>
+      </c>
+      <c r="G27">
+        <v>-4.72067747850906</v>
+      </c>
+      <c r="H27">
+        <v>0.8992368959786461</v>
+      </c>
+      <c r="I27">
+        <v>2.051417940864467</v>
+      </c>
+      <c r="J27">
+        <v>-2.084300476583393</v>
+      </c>
+      <c r="K27">
+        <v>-1.08981138737414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.6043302599539206</v>
+      </c>
+      <c r="C28">
+        <v>-0.5183553771707381</v>
+      </c>
+      <c r="D28">
+        <v>1.7</v>
+      </c>
+      <c r="E28">
+        <v>7.431044133207007</v>
+      </c>
+      <c r="F28">
+        <v>-4.529401638091318</v>
+      </c>
+      <c r="G28">
+        <v>1.090512736396388</v>
+      </c>
+      <c r="H28">
+        <v>2.24269378128221</v>
+      </c>
+      <c r="I28">
+        <v>-1.893024636165651</v>
+      </c>
+      <c r="J28">
+        <v>-0.898535546956398</v>
+      </c>
+      <c r="K28">
+        <v>0.6717175472572421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.2305014963795883</v>
+      </c>
+      <c r="C29">
+        <v>1.98785388079115</v>
+      </c>
+      <c r="D29">
+        <v>7.718898013998157</v>
+      </c>
+      <c r="E29">
+        <v>-4.241547757300168</v>
+      </c>
+      <c r="F29">
+        <v>1.378366617187538</v>
+      </c>
+      <c r="G29">
+        <v>2.53054766207336</v>
+      </c>
+      <c r="H29">
+        <v>-1.605170755374501</v>
+      </c>
+      <c r="I29">
+        <v>-0.6106816661652483</v>
+      </c>
+      <c r="J29">
+        <v>0.9595714280483918</v>
+      </c>
+      <c r="K29">
+        <v>-0.4522765798842129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>1.09566974004608</v>
+      </c>
+      <c r="C30">
+        <v>6.826713873253087</v>
+      </c>
+      <c r="D30">
+        <v>-5.133731898045238</v>
+      </c>
+      <c r="E30">
+        <v>0.4861824764424679</v>
+      </c>
+      <c r="F30">
+        <v>1.638363521328289</v>
+      </c>
+      <c r="G30">
+        <v>-2.497354896119572</v>
+      </c>
+      <c r="H30">
+        <v>-1.502865806910318</v>
+      </c>
+      <c r="I30">
+        <v>0.0673872873033215</v>
+      </c>
+      <c r="J30">
+        <v>-1.344460720629283</v>
+      </c>
+      <c r="K30">
+        <v>-1.043602764767667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>7.949399510377745</v>
+      </c>
+      <c r="C31">
+        <v>-4.01104626092058</v>
+      </c>
+      <c r="D31">
+        <v>1.608868113567127</v>
+      </c>
+      <c r="E31">
+        <v>2.761049158452948</v>
+      </c>
+      <c r="F31">
+        <v>-1.374669258994913</v>
+      </c>
+      <c r="G31">
+        <v>-0.3801801697856599</v>
+      </c>
+      <c r="H31">
+        <v>1.19007292442798</v>
+      </c>
+      <c r="I31">
+        <v>-0.2217750835046246</v>
+      </c>
+      <c r="J31">
+        <v>0.07908287235699163</v>
+      </c>
+      <c r="K31">
+        <v>0.6547824113634846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-6.229401638091318</v>
+      </c>
+      <c r="C32">
+        <v>-0.6094872636036115</v>
+      </c>
+      <c r="D32">
+        <v>0.5426937812822099</v>
+      </c>
+      <c r="E32">
+        <v>-3.593024636165651</v>
+      </c>
+      <c r="F32">
+        <v>-2.598535546956398</v>
+      </c>
+      <c r="G32">
+        <v>-1.028282452742758</v>
+      </c>
+      <c r="H32">
+        <v>-2.440130460675363</v>
+      </c>
+      <c r="I32">
+        <v>-2.139272504813746</v>
+      </c>
+      <c r="J32">
+        <v>-1.563572965807253</v>
+      </c>
+      <c r="K32">
+        <v>-0.4878331289550319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>5.619914374487706</v>
+      </c>
+      <c r="C33">
+        <v>6.772095419373528</v>
+      </c>
+      <c r="D33">
+        <v>2.636377001925667</v>
+      </c>
+      <c r="E33">
+        <v>3.63086609113492</v>
+      </c>
+      <c r="F33">
+        <v>5.20111918534856</v>
+      </c>
+      <c r="G33">
+        <v>3.789271177415955</v>
+      </c>
+      <c r="H33">
+        <v>4.090129133277571</v>
+      </c>
+      <c r="I33">
+        <v>4.665828672284064</v>
+      </c>
+      <c r="J33">
+        <v>5.741568509136286</v>
+      </c>
+      <c r="K33">
+        <v>5.29976433783267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1.152181044885821</v>
+      </c>
+      <c r="C34">
+        <v>-2.98353737256204</v>
+      </c>
+      <c r="D34">
+        <v>-1.989048283352786</v>
+      </c>
+      <c r="E34">
+        <v>-0.4187951891391464</v>
+      </c>
+      <c r="F34">
+        <v>-1.830643197071751</v>
+      </c>
+      <c r="G34">
+        <v>-1.529785241210135</v>
+      </c>
+      <c r="H34">
+        <v>-0.954085702203642</v>
+      </c>
+      <c r="I34">
+        <v>0.1216541346485795</v>
+      </c>
+      <c r="J34">
+        <v>-0.3201500366550363</v>
+      </c>
+      <c r="K34">
+        <v>-1.129922868978667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>-4.135718417447861</v>
+      </c>
+      <c r="C35">
+        <v>-3.141229328238608</v>
+      </c>
+      <c r="D35">
+        <v>-1.570976234024968</v>
+      </c>
+      <c r="E35">
+        <v>-2.982824241957573</v>
+      </c>
+      <c r="F35">
+        <v>-2.681966286095956</v>
+      </c>
+      <c r="G35">
+        <v>-2.106266747089463</v>
+      </c>
+      <c r="H35">
+        <v>-1.030526910237242</v>
+      </c>
+      <c r="I35">
+        <v>-1.472331081540858</v>
+      </c>
+      <c r="J35">
+        <v>-2.282103913864489</v>
+      </c>
+      <c r="K35">
+        <v>-2.001972466478676</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0.9944890892092531</v>
+      </c>
+      <c r="C36">
+        <v>2.564742183422893</v>
+      </c>
+      <c r="D36">
+        <v>1.152894175490288</v>
+      </c>
+      <c r="E36">
+        <v>1.453752131351905</v>
+      </c>
+      <c r="F36">
+        <v>2.029451670358398</v>
+      </c>
+      <c r="G36">
+        <v>3.105191507210619</v>
+      </c>
+      <c r="H36">
+        <v>2.663387335907003</v>
+      </c>
+      <c r="I36">
+        <v>1.853614503583372</v>
+      </c>
+      <c r="J36">
+        <v>2.133745950969185</v>
+      </c>
+      <c r="K36">
+        <v>2.172613016198397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.57025309421364</v>
+      </c>
+      <c r="C37">
+        <v>0.1584050862810353</v>
+      </c>
+      <c r="D37">
+        <v>0.4592630421426516</v>
+      </c>
+      <c r="E37">
+        <v>1.034962581149145</v>
+      </c>
+      <c r="F37">
+        <v>2.110702418001366</v>
+      </c>
+      <c r="G37">
+        <v>1.66889824669775</v>
+      </c>
+      <c r="H37">
+        <v>0.8591254143741192</v>
+      </c>
+      <c r="I37">
+        <v>1.139256861759932</v>
+      </c>
+      <c r="J37">
+        <v>1.178123926989144</v>
+      </c>
+      <c r="K37">
+        <v>1.069411713873904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-1.411848007932605</v>
+      </c>
+      <c r="C38">
+        <v>-1.110990052070989</v>
+      </c>
+      <c r="D38">
+        <v>-0.5352905130644956</v>
+      </c>
+      <c r="E38">
+        <v>0.5404493237877259</v>
+      </c>
+      <c r="F38">
+        <v>0.09864515248411015</v>
+      </c>
+      <c r="G38">
+        <v>-0.7111276798395209</v>
+      </c>
+      <c r="H38">
+        <v>-0.4309962324537082</v>
+      </c>
+      <c r="I38">
+        <v>-0.3921291672244961</v>
+      </c>
+      <c r="J38">
+        <v>-0.500841380339736</v>
+      </c>
+      <c r="K38">
+        <v>-0.3405909978652488</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>0.3008579558616162</v>
       </c>
-      <c r="C2">
+      <c r="C39">
         <v>0.8765574948681092</v>
       </c>
-      <c r="D2">
+      <c r="D39">
         <v>1.952297331720331</v>
       </c>
-      <c r="E2">
+      <c r="E39">
         <v>1.510493160416715</v>
       </c>
-      <c r="F2">
+      <c r="F39">
         <v>0.7007203280930838</v>
       </c>
-      <c r="G2">
+      <c r="G39">
         <v>0.9808517754788966</v>
       </c>
-      <c r="H2">
+      <c r="H39">
         <v>1.019718840708109</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+      <c r="I39">
+        <v>0.9110066275928688</v>
+      </c>
+      <c r="J39">
+        <v>1.071257010067356</v>
+      </c>
+      <c r="K39">
+        <v>0.9792051444528909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.575699539006493</v>
       </c>
-      <c r="C3">
+      <c r="C40">
         <v>1.651439375858714</v>
       </c>
-      <c r="D3">
+      <c r="D40">
         <v>1.209635204555099</v>
       </c>
-      <c r="E3">
+      <c r="E40">
         <v>0.3998623722314676</v>
       </c>
-      <c r="F3">
+      <c r="F40">
         <v>0.6799938196172803</v>
       </c>
-      <c r="G3">
+      <c r="G40">
         <v>0.7188608848464924</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+      <c r="H40">
+        <v>0.6101486717312525</v>
+      </c>
+      <c r="I40">
+        <v>0.7703990542057397</v>
+      </c>
+      <c r="J40">
+        <v>0.6783471885912746</v>
+      </c>
+      <c r="K40">
+        <v>0.4621400503127262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>1.075739836852222</v>
       </c>
-      <c r="C4">
+      <c r="C41">
         <v>0.6339356655486057</v>
       </c>
-      <c r="D4">
+      <c r="D41">
         <v>-0.1758371667750253</v>
       </c>
-      <c r="E4">
+      <c r="E41">
         <v>0.1042942806107874</v>
       </c>
-      <c r="F4">
+      <c r="F41">
         <v>0.1431613458399994</v>
       </c>
-      <c r="G4">
+      <c r="G41">
         <v>0.03444913272475958</v>
       </c>
-      <c r="H4">
+      <c r="H41">
         <v>0.1946995151992468</v>
       </c>
-      <c r="I4">
+      <c r="I41">
         <v>0.1026476495847817</v>
       </c>
-      <c r="J4">
+      <c r="J41">
         <v>-0.1135594886937667</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+      <c r="K41">
+        <v>-0.4310801751339852</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.4418041713036158</v>
       </c>
-      <c r="C5">
+      <c r="C42">
         <v>-1.251577003627247</v>
       </c>
-      <c r="D5">
+      <c r="D42">
         <v>-0.9714455562414341</v>
       </c>
-      <c r="E5">
+      <c r="E42">
         <v>-0.9325784910122221</v>
       </c>
-      <c r="F5">
+      <c r="F42">
         <v>-1.041290704127462</v>
       </c>
-      <c r="G5">
+      <c r="G42">
         <v>-0.8810403216529747</v>
       </c>
-      <c r="H5">
+      <c r="H42">
         <v>-0.9730921872674398</v>
       </c>
-      <c r="I5">
+      <c r="I42">
         <v>-1.189299325545988</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+      <c r="J42">
+        <v>-1.506820011986207</v>
+      </c>
+      <c r="K42">
+        <v>-1.214595008774651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-0.8097728323236311</v>
       </c>
-      <c r="C6">
+      <c r="C43">
         <v>-0.5296413849378183</v>
       </c>
-      <c r="D6">
+      <c r="D43">
         <v>-0.4907743197086063</v>
       </c>
-      <c r="E6">
+      <c r="E43">
         <v>-0.5994865328238461</v>
       </c>
-      <c r="F6">
+      <c r="F43">
         <v>-0.4392361503493589</v>
       </c>
-      <c r="G6">
+      <c r="G43">
         <v>-0.531288015963824</v>
       </c>
-      <c r="H6">
+      <c r="H43">
         <v>-0.7474951542423725</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="I43">
+        <v>-1.065015840682591</v>
+      </c>
+      <c r="J43">
+        <v>-0.7727908374710353</v>
+      </c>
+      <c r="K43">
+        <v>-0.7789360858117362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>0.2801314473858127</v>
       </c>
-      <c r="C7">
+      <c r="C44">
         <v>0.3189985126150248</v>
       </c>
-      <c r="D7">
+      <c r="D44">
         <v>0.2102862994997849</v>
       </c>
-      <c r="E7">
+      <c r="E44">
         <v>0.3705366819742721</v>
       </c>
-      <c r="F7">
+      <c r="F44">
         <v>0.278484816359807</v>
       </c>
-      <c r="G7">
+      <c r="G44">
         <v>0.06227767808125861</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+      <c r="H44">
+        <v>-0.2552430083589599</v>
+      </c>
+      <c r="I44">
+        <v>0.03698199485259582</v>
+      </c>
+      <c r="J44">
+        <v>0.0308367465118948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.03886706522921202</v>
       </c>
-      <c r="C8">
+      <c r="C45">
         <v>-0.0698451478860278</v>
       </c>
-      <c r="D8">
+      <c r="D45">
         <v>0.09040523458845939</v>
       </c>
-      <c r="E8">
+      <c r="E45">
         <v>-0.0016466310260057</v>
       </c>
-      <c r="F8">
+      <c r="F45">
         <v>-0.2178537693045541</v>
       </c>
-      <c r="G8">
+      <c r="G45">
         <v>-0.5353744557447726</v>
       </c>
-      <c r="H8">
+      <c r="H45">
         <v>-0.2431494525332169</v>
       </c>
-      <c r="I8">
+      <c r="I45">
         <v>-0.2492947008739179</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>-0.1087122131152398</v>
       </c>
-      <c r="C9">
+      <c r="C46">
         <v>0.05153816935924738</v>
       </c>
-      <c r="D9">
+      <c r="D46">
         <v>-0.04051369625521772</v>
       </c>
-      <c r="E9">
+      <c r="E46">
         <v>-0.2567208345337662</v>
       </c>
-      <c r="F9">
+      <c r="F46">
         <v>-0.5742415209739846</v>
       </c>
-      <c r="G9">
+      <c r="G46">
         <v>-0.2820165177624289</v>
       </c>
-      <c r="H9">
+      <c r="H46">
         <v>-0.2881617661031299</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>0.1602503824744872</v>
       </c>
-      <c r="C10">
+      <c r="C47">
         <v>0.0681985168600221</v>
       </c>
-      <c r="D10">
+      <c r="D47">
         <v>-0.1480086214185263</v>
       </c>
-      <c r="E10">
+      <c r="E47">
         <v>-0.4655293078587448</v>
       </c>
-      <c r="F10">
+      <c r="F47">
         <v>-0.1733043046471891</v>
       </c>
-      <c r="G10">
+      <c r="G47">
         <v>-0.1794495529878901</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
         <v>-0.0920518656144651</v>
       </c>
-      <c r="C11">
+      <c r="C48">
         <v>-0.3082590038930135</v>
       </c>
-      <c r="D11">
+      <c r="D48">
         <v>-0.625779690333232</v>
       </c>
-      <c r="E11">
+      <c r="E48">
         <v>-0.3335546871216763</v>
       </c>
-      <c r="F11">
+      <c r="F48">
         <v>-0.3396999354623773</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
         <v>-0.2162071382785484</v>
       </c>
-      <c r="C12">
+      <c r="C49">
         <v>-0.5337278247187669</v>
       </c>
-      <c r="D12">
+      <c r="D49">
         <v>-0.2415028215072112</v>
       </c>
-      <c r="E12">
+      <c r="E49">
         <v>-0.2476480698479122</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
         <v>-0.3175206864402185</v>
       </c>
-      <c r="C13">
+      <c r="C50">
         <v>-0.0252956832286628</v>
       </c>
-      <c r="D13">
+      <c r="D50">
         <v>-0.03144093156936381</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
         <v>0.2922250032115557</v>
       </c>
-      <c r="C14">
+      <c r="C51">
         <v>0.2860797548708547</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
         <v>-0.006145248340701015</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -600,34 +600,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>1.150696136198235</v>
+      </c>
+      <c r="C2">
         <v>-1.016970231101027</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.856303680036476</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-0.4261503456075</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.9520335363487078</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.628764577266821</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2.311804596319448</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-0.3645642242167779</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2.364071468851137</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-0.4880015757602221</v>
-      </c>
-      <c r="K2">
-        <v>-1.044484822570396</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -635,34 +635,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>2.873273911137503</v>
+      </c>
+      <c r="C3">
         <v>0.5908198854935269</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.969003767449735</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>3.645734808367848</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.328774827420475</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.652406006884249</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3.381041699952164</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.5289686553408048</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.02751459146936908</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.510893826230975</v>
-      </c>
-      <c r="K3">
-        <v>2.074527984463444</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,34 +670,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>1.378183881956208</v>
+      </c>
+      <c r="C4">
         <v>3.054914922874321</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2.737954941926948</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.06158612139072206</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.790221814458637</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.06185123015272209</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.618334476962896</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.920073940737448</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.483708098969917</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.2402435473108151</v>
-      </c>
-      <c r="K4">
-        <v>1.120073940737448</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -705,34 +705,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-0.3169599809473731</v>
+      </c>
+      <c r="C5">
         <v>-2.993328801483599</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.2646931084156841</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-3.116766153027043</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-3.673249399837217</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-2.134840982136873</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-1.571206823904404</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-2.814671375563506</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-1.934840982136873</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-2.134840982136873</v>
-      </c>
-      <c r="K5">
-        <v>-1.965208663802656</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -740,34 +740,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>2.728635693067915</v>
+      </c>
+      <c r="C6">
         <v>-0.1234373515434442</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.6799205983536181</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.8584878193467259</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.422121977579195</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.178657425920093</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.058487819346726</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.8584878193467259</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.028120137680943</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1.558487819346726</v>
-      </c>
-      <c r="K6">
-        <v>1.663050468111208</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -775,34 +775,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.5564832468101739</v>
+      </c>
+      <c r="C7">
         <v>0.9819251708901701</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.545559329122639</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3020947774635372</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.18192517089017</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.9819251708901701</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.151557489224387</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.68192517089017</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.786487819654653</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1.38192517089017</v>
-      </c>
-      <c r="K7">
-        <v>1.400397236894861</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -810,34 +810,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0.563634158232469</v>
+      </c>
+      <c r="C8">
         <v>-0.6798303934266329</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.2</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1696323183342173</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.7</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.8045626487644824</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.4</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.4184720660046907</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.390764013820737</v>
-      </c>
-      <c r="K8">
-        <v>0.01365250394267431</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -845,34 +845,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.8798303934266329</v>
+      </c>
+      <c r="C9">
         <v>0.6798303934266329</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.8494627117608502</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.379830393426633</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.484393042191115</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.079830393426633</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.098302459431324</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.07059440724737</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.6934828973693072</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.38341059906206</v>
-      </c>
-      <c r="K9">
-        <v>1.398155394996834</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -880,34 +880,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.1696323183342173</v>
+      </c>
+      <c r="C10">
         <v>0.7</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.8045626487644824</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.4184720660046907</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.390764013820737</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.01365250394267431</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.2964197943645729</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.7183250015702015</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-1.452186157158073</v>
-      </c>
-      <c r="K10">
-        <v>0.5726927221574073</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -915,34 +915,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0.1045626487644824</v>
+      </c>
+      <c r="C11">
         <v>-0.3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2815279339953093</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.309235986179263</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.6863474960573257</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.996419794364573</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.0183250015702015</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-2.152186157158073</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.1273072778425927</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.1270022392231624</v>
-      </c>
-      <c r="K11">
-        <v>-1.350807574684342</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.01847206600469065</v>
+      </c>
+      <c r="C12">
         <v>-0.009235986179263023</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.3863474960573257</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-0.6964197943645729</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.3183250015702015</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-1.852186157158073</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.1726927221574073</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.1729977607768376</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-1.050807574684342</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.5056288600178789</v>
-      </c>
-      <c r="K12">
-        <v>0.2184803162966205</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -985,34 +985,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.3771115098780627</v>
+      </c>
+      <c r="C13">
         <v>-0.6871838081853099</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3275609877494645</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1.84295017097881</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.1819287083366703</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.1822337469561006</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-1.041571588505079</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.4963928738386159</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.2277163024758835</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-0.7142981232558725</v>
-      </c>
-      <c r="K13">
-        <v>-0.8421524812879255</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1020,34 +1020,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>1.014744795934774</v>
+      </c>
+      <c r="C14">
         <v>-1.1557663627935</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.8691125165219802</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.8694175551414105</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.354387780319769</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.190790934346694</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.9149001106611934</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-0.02711431507056261</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-0.1549686731026156</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.1102536290315754</v>
-      </c>
-      <c r="K14">
-        <v>0.8352425558547338</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1055,34 +1055,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>2.024878879315481</v>
+      </c>
+      <c r="C15">
         <v>2.02518391793491</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.8013785824737312</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.346557297140194</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.070666473454694</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.128652047722938</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.000797689690885</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.045512733761925</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.991008918648234</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1.370258333097198</v>
-      </c>
-      <c r="K15">
-        <v>1.189259644257845</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1090,34 +1090,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-1.22380533546118</v>
+      </c>
+      <c r="C16">
         <v>-0.6786266207947165</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.04548255551978292</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-0.8965318702119731</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-1.024386228244026</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-0.9796711841729859</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-0.03417499928667669</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.6549255848377129</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.8359242736770653</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-0.337636823720473</v>
-      </c>
-      <c r="K16">
-        <v>-1.337698499194801</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1125,34 +1125,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.7241091763144993</v>
+      </c>
+      <c r="C17">
         <v>-0.2179052494172566</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-0.3457596074493097</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-0.3010445633782695</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.6444516215080398</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.02370103595700357</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-0.1572976528823489</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.3409897970742435</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-0.6590718784000842</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.07390479252633497</v>
-      </c>
-      <c r="K17">
-        <v>0.369711816869375</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1160,34 +1160,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.127854358032053</v>
+      </c>
+      <c r="C18">
         <v>-0.08313931396101282</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.8623568709252964</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2416062853742602</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.06060759653490777</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.5588950464915001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-0.4411666289828275</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.2918100419435916</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.5876170662866316</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.3378071961977303</v>
-      </c>
-      <c r="K18">
-        <v>-0.1528028470799825</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1195,34 +1195,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.9454961848863093</v>
+      </c>
+      <c r="C19">
         <v>0.324745599335273</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.1437469104959206</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.6420343604525129</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.3580273150218147</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.3749493559046044</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.6707563802476444</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.4209465101587431</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-0.06966353311896967</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.006673423396148292</v>
-      </c>
-      <c r="K19">
-        <v>0.7979492638138908</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1230,34 +1230,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.1809986888393524</v>
+      </c>
+      <c r="C20">
         <v>0.3172887611172399</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.6827729143570878</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.0502037565693314</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3460107809123714</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.0962009108234701</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-0.3944091324542427</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-0.3180721759391247</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.4732036644786177</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.2819278240608753</v>
-      </c>
-      <c r="K20">
-        <v>-0.005926056730274409</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1265,34 +1265,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-1.000061675474328</v>
+      </c>
+      <c r="C21">
         <v>-0.2670850045479085</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.0287220197951315</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.2210878502937698</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-0.7116978935714826</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-0.6353609370563646</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1559149033613778</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.03536093705636462</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-0.3232148178475143</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.568969322897556</v>
-      </c>
-      <c r="K21">
-        <v>-0.5537163142271027</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1300,34 +1300,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.29580702434304</v>
+      </c>
+      <c r="C22">
         <v>0.04599715425413869</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-0.4446128890235741</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-0.3682759325084561</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.4229999079092863</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2317240674915439</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-0.05612981329960581</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.8360543274454645</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-0.2866313096791941</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1.931724067491544</v>
-      </c>
-      <c r="K22">
-        <v>7.662768200698551</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1335,34 +1335,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.2498098700889013</v>
+      </c>
+      <c r="C23">
         <v>-0.7404199133666141</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-0.6640829568514961</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1271928835662463</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-0.06408295685149612</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.3519368376426458</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.5402473031024244</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.5824383340222341</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.635917043148504</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>7.366961176355511</v>
-      </c>
-      <c r="K23">
-        <v>-4.593484594942814</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1370,34 +1370,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>-0.4906100432777128</v>
+      </c>
+      <c r="C24">
         <v>-0.4142730867625948</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.3770027536551476</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1857269132374052</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.1021269675537445</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.7900571731913257</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.3326284639333328</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.885726913237405</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>7.616771046444412</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-4.343674724853913</v>
-      </c>
-      <c r="K24">
-        <v>1.276239649633794</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1405,34 +1405,34 @@
         <v>33</v>
       </c>
       <c r="B25">
+        <v>0.07633695651511796</v>
+      </c>
+      <c r="C25">
         <v>0.8676127969328604</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.676336956515118</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.3884830757239683</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.280667216469038</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.15798157934438</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2.376336956515118</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>8.107381089722125</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-3.8530646815762</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.766849692911507</v>
-      </c>
-      <c r="K25">
-        <v>2.919030737797328</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1440,34 +1440,34 @@
         <v>34</v>
       </c>
       <c r="B26">
+        <v>0.7912758404177425</v>
+      </c>
+      <c r="C26">
         <v>0.6000000000000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.3121461192088503</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1.204330259953921</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.08164462282926199</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>2.3</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>8.031044133207008</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-3.929401638091318</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.690512736396389</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2.84269378128221</v>
-      </c>
-      <c r="K26">
-        <v>-1.293024636165651</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1475,34 +1475,34 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>-0.1912758404177424</v>
+      </c>
+      <c r="C27">
         <v>-0.4791297212088921</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.4130544195361782</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-0.7096312175884805</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.508724159582258</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7.239768292789265</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-4.72067747850906</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.8992368959786461</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>2.051417940864467</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-2.084300476583393</v>
-      </c>
-      <c r="K27">
-        <v>-1.08981138737414</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1510,34 +1510,34 @@
         <v>36</v>
       </c>
       <c r="B28">
+        <v>-0.2878538807911497</v>
+      </c>
+      <c r="C28">
         <v>0.6043302599539206</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-0.5183553771707381</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.7</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>7.431044133207007</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-4.529401638091318</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.090512736396388</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.24269378128221</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-1.893024636165651</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-0.898535546956398</v>
-      </c>
-      <c r="K28">
-        <v>0.6717175472572421</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1545,34 +1545,34 @@
         <v>37</v>
       </c>
       <c r="B29">
+        <v>0.8921841407450704</v>
+      </c>
+      <c r="C29">
         <v>-0.2305014963795883</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.98785388079115</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>7.718898013998157</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-4.241547757300168</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.378366617187538</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.53054766207336</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1.605170755374501</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-0.6106816661652483</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.9595714280483918</v>
-      </c>
-      <c r="K29">
-        <v>-0.4522765798842129</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1580,34 +1580,34 @@
         <v>38</v>
       </c>
       <c r="B30">
+        <v>-1.122685637124659</v>
+      </c>
+      <c r="C30">
         <v>1.09566974004608</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6.826713873253087</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-5.133731898045238</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.4861824764424679</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.638363521328289</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-2.497354896119572</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1.502865806910318</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.0673872873033215</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1.344460720629283</v>
-      </c>
-      <c r="K30">
-        <v>-1.043602764767667</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1615,34 +1615,34 @@
         <v>39</v>
       </c>
       <c r="B31">
+        <v>2.218355377170738</v>
+      </c>
+      <c r="C31">
         <v>7.949399510377745</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-4.01104626092058</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.608868113567127</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.761049158452948</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-1.374669258994913</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.3801801697856599</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1.19007292442798</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.2217750835046246</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.07908287235699163</v>
-      </c>
-      <c r="K31">
-        <v>0.6547824113634846</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1650,34 +1650,34 @@
         <v>40</v>
       </c>
       <c r="B32">
+        <v>5.731044133207007</v>
+      </c>
+      <c r="C32">
         <v>-6.229401638091318</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-0.6094872636036115</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.5426937812822099</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-3.593024636165651</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-2.598535546956398</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-1.028282452742758</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-2.440130460675363</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-2.139272504813746</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-1.563572965807253</v>
-      </c>
-      <c r="K32">
-        <v>-0.4878331289550319</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>5.619914374487706</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>6.772095419373528</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>2.636377001925667</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3.63086609113492</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>5.20111918534856</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>3.789271177415955</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>4.090129133277571</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>4.665828672284064</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>5.741568509136286</v>
-      </c>
-      <c r="K33">
-        <v>5.29976433783267</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>1.152181044885821</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-2.98353737256204</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-1.989048283352786</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-0.4187951891391464</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-1.830643197071751</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-1.529785241210135</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.954085702203642</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.1216541346485795</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-0.3201500366550363</v>
-      </c>
-      <c r="K34">
-        <v>-1.129922868978667</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,34 +1755,31 @@
         <v>43</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>-4.135718417447861</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-3.141229328238608</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-1.570976234024968</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-2.982824241957573</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>-2.681966286095956</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>-2.106266747089463</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-1.030526910237242</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-1.472331081540858</v>
-      </c>
-      <c r="J35">
-        <v>-2.282103913864489</v>
-      </c>
-      <c r="K35">
-        <v>-2.001972466478676</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1790,34 +1787,28 @@
         <v>44</v>
       </c>
       <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>0.9944890892092531</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2.564742183422893</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1.152894175490288</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1.453752131351905</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>2.029451670358398</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3.105191507210619</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2.663387335907003</v>
-      </c>
-      <c r="I36">
-        <v>1.853614503583372</v>
-      </c>
-      <c r="J36">
-        <v>2.133745950969185</v>
-      </c>
-      <c r="K36">
-        <v>2.172613016198397</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1825,34 +1816,25 @@
         <v>45</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>1.57025309421364</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.1584050862810353</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.4592630421426516</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1.034962581149145</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2.110702418001366</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1.66889824669775</v>
-      </c>
-      <c r="H37">
-        <v>0.8591254143741192</v>
-      </c>
-      <c r="I37">
-        <v>1.139256861759932</v>
-      </c>
-      <c r="J37">
-        <v>1.178123926989144</v>
-      </c>
-      <c r="K37">
-        <v>1.069411713873904</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1860,34 +1842,22 @@
         <v>46</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>-1.411848007932605</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-1.110990052070989</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.5352905130644956</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.5404493237877259</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.09864515248411015</v>
-      </c>
-      <c r="G38">
-        <v>-0.7111276798395209</v>
-      </c>
-      <c r="H38">
-        <v>-0.4309962324537082</v>
-      </c>
-      <c r="I38">
-        <v>-0.3921291672244961</v>
-      </c>
-      <c r="J38">
-        <v>-0.500841380339736</v>
-      </c>
-      <c r="K38">
-        <v>-0.3405909978652488</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1895,34 +1865,19 @@
         <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>0.3008579558616162</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.8765574948681092</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1.952297331720331</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>1.510493160416715</v>
-      </c>
-      <c r="F39">
-        <v>0.7007203280930838</v>
-      </c>
-      <c r="G39">
-        <v>0.9808517754788966</v>
-      </c>
-      <c r="H39">
-        <v>1.019718840708109</v>
-      </c>
-      <c r="I39">
-        <v>0.9110066275928688</v>
-      </c>
-      <c r="J39">
-        <v>1.071257010067356</v>
-      </c>
-      <c r="K39">
-        <v>0.9792051444528909</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1930,34 +1885,16 @@
         <v>48</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>0.575699539006493</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>1.651439375858714</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1.209635204555099</v>
-      </c>
-      <c r="E40">
-        <v>0.3998623722314676</v>
-      </c>
-      <c r="F40">
-        <v>0.6799938196172803</v>
-      </c>
-      <c r="G40">
-        <v>0.7188608848464924</v>
-      </c>
-      <c r="H40">
-        <v>0.6101486717312525</v>
-      </c>
-      <c r="I40">
-        <v>0.7703990542057397</v>
-      </c>
-      <c r="J40">
-        <v>0.6783471885912746</v>
-      </c>
-      <c r="K40">
-        <v>0.4621400503127262</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1965,34 +1902,13 @@
         <v>49</v>
       </c>
       <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>1.075739836852222</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.6339356655486057</v>
-      </c>
-      <c r="D41">
-        <v>-0.1758371667750253</v>
-      </c>
-      <c r="E41">
-        <v>0.1042942806107874</v>
-      </c>
-      <c r="F41">
-        <v>0.1431613458399994</v>
-      </c>
-      <c r="G41">
-        <v>0.03444913272475958</v>
-      </c>
-      <c r="H41">
-        <v>0.1946995151992468</v>
-      </c>
-      <c r="I41">
-        <v>0.1026476495847817</v>
-      </c>
-      <c r="J41">
-        <v>-0.1135594886937667</v>
-      </c>
-      <c r="K41">
-        <v>-0.4310801751339852</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2000,34 +1916,10 @@
         <v>50</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>-0.4418041713036158</v>
-      </c>
-      <c r="C42">
-        <v>-1.251577003627247</v>
-      </c>
-      <c r="D42">
-        <v>-0.9714455562414341</v>
-      </c>
-      <c r="E42">
-        <v>-0.9325784910122221</v>
-      </c>
-      <c r="F42">
-        <v>-1.041290704127462</v>
-      </c>
-      <c r="G42">
-        <v>-0.8810403216529747</v>
-      </c>
-      <c r="H42">
-        <v>-0.9730921872674398</v>
-      </c>
-      <c r="I42">
-        <v>-1.189299325545988</v>
-      </c>
-      <c r="J42">
-        <v>-1.506820011986207</v>
-      </c>
-      <c r="K42">
-        <v>-1.214595008774651</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2035,217 +1927,55 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.8097728323236311</v>
-      </c>
-      <c r="C43">
-        <v>-0.5296413849378183</v>
-      </c>
-      <c r="D43">
-        <v>-0.4907743197086063</v>
-      </c>
-      <c r="E43">
-        <v>-0.5994865328238461</v>
-      </c>
-      <c r="F43">
-        <v>-0.4392361503493589</v>
-      </c>
-      <c r="G43">
-        <v>-0.531288015963824</v>
-      </c>
-      <c r="H43">
-        <v>-0.7474951542423725</v>
-      </c>
-      <c r="I43">
-        <v>-1.065015840682591</v>
-      </c>
-      <c r="J43">
-        <v>-0.7727908374710353</v>
-      </c>
-      <c r="K43">
-        <v>-0.7789360858117362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>0.2801314473858127</v>
-      </c>
-      <c r="C44">
-        <v>0.3189985126150248</v>
-      </c>
-      <c r="D44">
-        <v>0.2102862994997849</v>
-      </c>
-      <c r="E44">
-        <v>0.3705366819742721</v>
-      </c>
-      <c r="F44">
-        <v>0.278484816359807</v>
-      </c>
-      <c r="G44">
-        <v>0.06227767808125861</v>
-      </c>
-      <c r="H44">
-        <v>-0.2552430083589599</v>
-      </c>
-      <c r="I44">
-        <v>0.03698199485259582</v>
-      </c>
-      <c r="J44">
-        <v>0.0308367465118948</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.03886706522921202</v>
-      </c>
-      <c r="C45">
-        <v>-0.0698451478860278</v>
-      </c>
-      <c r="D45">
-        <v>0.09040523458845939</v>
-      </c>
-      <c r="E45">
-        <v>-0.0016466310260057</v>
-      </c>
-      <c r="F45">
-        <v>-0.2178537693045541</v>
-      </c>
-      <c r="G45">
-        <v>-0.5353744557447726</v>
-      </c>
-      <c r="H45">
-        <v>-0.2431494525332169</v>
-      </c>
-      <c r="I45">
-        <v>-0.2492947008739179</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>-0.1087122131152398</v>
-      </c>
-      <c r="C46">
-        <v>0.05153816935924738</v>
-      </c>
-      <c r="D46">
-        <v>-0.04051369625521772</v>
-      </c>
-      <c r="E46">
-        <v>-0.2567208345337662</v>
-      </c>
-      <c r="F46">
-        <v>-0.5742415209739846</v>
-      </c>
-      <c r="G46">
-        <v>-0.2820165177624289</v>
-      </c>
-      <c r="H46">
-        <v>-0.2881617661031299</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>0.1602503824744872</v>
-      </c>
-      <c r="C47">
-        <v>0.0681985168600221</v>
-      </c>
-      <c r="D47">
-        <v>-0.1480086214185263</v>
-      </c>
-      <c r="E47">
-        <v>-0.4655293078587448</v>
-      </c>
-      <c r="F47">
-        <v>-0.1733043046471891</v>
-      </c>
-      <c r="G47">
-        <v>-0.1794495529878901</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
-        <v>-0.0920518656144651</v>
-      </c>
-      <c r="C48">
-        <v>-0.3082590038930135</v>
-      </c>
-      <c r="D48">
-        <v>-0.625779690333232</v>
-      </c>
-      <c r="E48">
-        <v>-0.3335546871216763</v>
-      </c>
-      <c r="F48">
-        <v>-0.3396999354623773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
-        <v>-0.2162071382785484</v>
-      </c>
-      <c r="C49">
-        <v>-0.5337278247187669</v>
-      </c>
-      <c r="D49">
-        <v>-0.2415028215072112</v>
-      </c>
-      <c r="E49">
-        <v>-0.2476480698479122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>-0.3175206864402185</v>
-      </c>
-      <c r="C50">
-        <v>-0.0252956832286628</v>
-      </c>
-      <c r="D50">
-        <v>-0.03144093156936381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51">
-        <v>0.2922250032115557</v>
-      </c>
-      <c r="C51">
-        <v>0.2860797548708547</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
-        <v>-0.006145248340701015</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -1397,7 +1397,7 @@
         <v>7.616771046444412</v>
       </c>
       <c r="K24">
-        <v>-4.343674724853913</v>
+        <v>-4.27960679849052</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1429,10 +1429,10 @@
         <v>8.107381089722125</v>
       </c>
       <c r="J25">
-        <v>-3.8530646815762</v>
+        <v>-3.788996755212807</v>
       </c>
       <c r="K25">
-        <v>1.766849692911507</v>
+        <v>1.143562595650536</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1461,13 +1461,13 @@
         <v>8.031044133207008</v>
       </c>
       <c r="I26">
-        <v>-3.929401638091318</v>
+        <v>-3.865333711727925</v>
       </c>
       <c r="J26">
-        <v>1.690512736396389</v>
+        <v>1.067225639135418</v>
       </c>
       <c r="K26">
-        <v>2.84269378128221</v>
+        <v>2.06956845314902</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1493,16 +1493,16 @@
         <v>7.239768292789265</v>
       </c>
       <c r="H27">
-        <v>-4.72067747850906</v>
+        <v>-4.656609552145667</v>
       </c>
       <c r="I27">
-        <v>0.8992368959786461</v>
+        <v>0.2759497987176758</v>
       </c>
       <c r="J27">
-        <v>2.051417940864467</v>
+        <v>1.278292612731277</v>
       </c>
       <c r="K27">
-        <v>-2.084300476583393</v>
+        <v>-2.341393141007416</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1525,19 +1525,19 @@
         <v>7.431044133207007</v>
       </c>
       <c r="G28">
-        <v>-4.529401638091318</v>
+        <v>-4.465333711727925</v>
       </c>
       <c r="H28">
-        <v>1.090512736396388</v>
+        <v>0.4672256391354182</v>
       </c>
       <c r="I28">
-        <v>2.24269378128221</v>
+        <v>1.46956845314902</v>
       </c>
       <c r="J28">
-        <v>-1.893024636165651</v>
+        <v>-2.150117300589673</v>
       </c>
       <c r="K28">
-        <v>-0.898535546956398</v>
+        <v>-1.831122027629067</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1557,22 +1557,22 @@
         <v>7.718898013998157</v>
       </c>
       <c r="F29">
-        <v>-4.241547757300168</v>
+        <v>-4.177479830936775</v>
       </c>
       <c r="G29">
-        <v>1.378366617187538</v>
+        <v>0.7550795199265679</v>
       </c>
       <c r="H29">
-        <v>2.53054766207336</v>
+        <v>1.75742233394017</v>
       </c>
       <c r="I29">
-        <v>-1.605170755374501</v>
+        <v>-1.862263419798524</v>
       </c>
       <c r="J29">
-        <v>-0.6106816661652483</v>
+        <v>-1.543268146837917</v>
       </c>
       <c r="K29">
-        <v>0.9595714280483918</v>
+        <v>1.037611590612414</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1589,25 +1589,25 @@
         <v>6.826713873253087</v>
       </c>
       <c r="E30">
-        <v>-5.133731898045238</v>
+        <v>-5.069663971681845</v>
       </c>
       <c r="F30">
-        <v>0.4861824764424679</v>
+        <v>-0.1371046208185024</v>
       </c>
       <c r="G30">
-        <v>1.638363521328289</v>
+        <v>0.8652381931950993</v>
       </c>
       <c r="H30">
-        <v>-2.497354896119572</v>
+        <v>-2.754447560543594</v>
       </c>
       <c r="I30">
-        <v>-1.502865806910318</v>
+        <v>-2.435452287582987</v>
       </c>
       <c r="J30">
-        <v>0.0673872873033215</v>
+        <v>0.1454274498673439</v>
       </c>
       <c r="K30">
-        <v>-1.344460720629283</v>
+        <v>-2.17953185948812</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1621,28 +1621,28 @@
         <v>7.949399510377745</v>
       </c>
       <c r="D31">
-        <v>-4.01104626092058</v>
+        <v>-3.946978334557187</v>
       </c>
       <c r="E31">
-        <v>1.608868113567127</v>
+        <v>0.9855810163061562</v>
       </c>
       <c r="F31">
-        <v>2.761049158452948</v>
+        <v>1.987923830319758</v>
       </c>
       <c r="G31">
-        <v>-1.374669258994913</v>
+        <v>-1.631761923418935</v>
       </c>
       <c r="H31">
-        <v>-0.3801801697856599</v>
+        <v>-1.312766650458329</v>
       </c>
       <c r="I31">
-        <v>1.19007292442798</v>
+        <v>1.268113086992003</v>
       </c>
       <c r="J31">
-        <v>-0.2217750835046246</v>
+        <v>-1.056846222363461</v>
       </c>
       <c r="K31">
-        <v>0.07908287235699163</v>
+        <v>-0.001587209089905173</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1653,31 +1653,31 @@
         <v>5.731044133207007</v>
       </c>
       <c r="C32">
-        <v>-6.229401638091318</v>
+        <v>-6.165333711727925</v>
       </c>
       <c r="D32">
-        <v>-0.6094872636036115</v>
+        <v>-1.232774360864582</v>
       </c>
       <c r="E32">
-        <v>0.5426937812822099</v>
+        <v>-0.2304315468509801</v>
       </c>
       <c r="F32">
-        <v>-3.593024636165651</v>
+        <v>-3.850117300589673</v>
       </c>
       <c r="G32">
-        <v>-2.598535546956398</v>
+        <v>-3.531122027629067</v>
       </c>
       <c r="H32">
-        <v>-1.028282452742758</v>
+        <v>-0.9502422901787355</v>
       </c>
       <c r="I32">
-        <v>-2.440130460675363</v>
+        <v>-3.275201599534199</v>
       </c>
       <c r="J32">
-        <v>-2.139272504813746</v>
+        <v>-2.219942586260643</v>
       </c>
       <c r="K32">
-        <v>-1.563572965807253</v>
+        <v>-2.001652513402433</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1685,34 +1685,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-11.89637784493493</v>
       </c>
       <c r="C33">
-        <v>5.619914374487706</v>
+        <v>-6.963818494071589</v>
       </c>
       <c r="D33">
-        <v>6.772095419373528</v>
+        <v>-5.961475680057987</v>
       </c>
       <c r="E33">
-        <v>2.636377001925667</v>
+        <v>-9.58116143379668</v>
       </c>
       <c r="F33">
-        <v>3.63086609113492</v>
+        <v>-9.262166160836074</v>
       </c>
       <c r="G33">
-        <v>5.20111918534856</v>
+        <v>-6.681286423385743</v>
       </c>
       <c r="H33">
-        <v>3.789271177415955</v>
+        <v>-9.006245732741206</v>
       </c>
       <c r="I33">
-        <v>4.090129133277571</v>
+        <v>-7.95098671946765</v>
       </c>
       <c r="J33">
-        <v>4.665828672284064</v>
+        <v>-7.73269664660944</v>
       </c>
       <c r="K33">
-        <v>5.741568509136286</v>
+        <v>-6.641963848986791</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1720,34 +1720,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>4.932559350863343</v>
       </c>
       <c r="C34">
-        <v>1.152181044885821</v>
+        <v>5.934902164876945</v>
       </c>
       <c r="D34">
-        <v>-2.98353737256204</v>
+        <v>2.315216411138252</v>
       </c>
       <c r="E34">
-        <v>-1.989048283352786</v>
+        <v>2.634211684098858</v>
       </c>
       <c r="F34">
-        <v>-0.4187951891391464</v>
+        <v>5.215091421549189</v>
       </c>
       <c r="G34">
-        <v>-1.830643197071751</v>
+        <v>2.890132112193726</v>
       </c>
       <c r="H34">
-        <v>-1.529785241210135</v>
+        <v>3.945391125467282</v>
       </c>
       <c r="I34">
-        <v>-0.954085702203642</v>
+        <v>4.163681198325492</v>
       </c>
       <c r="J34">
-        <v>0.1216541346485795</v>
+        <v>5.254413995948141</v>
       </c>
       <c r="K34">
-        <v>-0.3201500366550363</v>
+        <v>5.671137314123342</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1755,31 +1755,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.002342814013602</v>
       </c>
       <c r="C35">
-        <v>-4.135718417447861</v>
+        <v>-2.617342939725091</v>
       </c>
       <c r="D35">
-        <v>-3.141229328238608</v>
+        <v>-2.298347666764485</v>
       </c>
       <c r="E35">
-        <v>-1.570976234024968</v>
+        <v>0.2825320706858463</v>
       </c>
       <c r="F35">
-        <v>-2.982824241957573</v>
+        <v>-2.042427238669617</v>
       </c>
       <c r="G35">
-        <v>-2.681966286095956</v>
+        <v>-0.9871682253960614</v>
       </c>
       <c r="H35">
-        <v>-2.106266747089463</v>
+        <v>-0.7688781525378516</v>
       </c>
       <c r="I35">
-        <v>-1.030526910237242</v>
+        <v>0.3218546450847981</v>
       </c>
       <c r="J35">
-        <v>-1.472331081540858</v>
+        <v>0.7385779632599989</v>
+      </c>
+      <c r="K35">
+        <v>-0.8462048329513294</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1787,28 +1790,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-3.619685753738693</v>
       </c>
       <c r="C36">
-        <v>0.9944890892092531</v>
+        <v>-3.300690480778087</v>
       </c>
       <c r="D36">
-        <v>2.564742183422893</v>
+        <v>-0.7198107433277554</v>
       </c>
       <c r="E36">
-        <v>1.152894175490288</v>
+        <v>-3.044770052683219</v>
       </c>
       <c r="F36">
-        <v>1.453752131351905</v>
+        <v>-1.989511039409663</v>
       </c>
       <c r="G36">
-        <v>2.029451670358398</v>
+        <v>-1.771220966551453</v>
       </c>
       <c r="H36">
-        <v>3.105191507210619</v>
+        <v>-0.6804881689288036</v>
       </c>
       <c r="I36">
-        <v>2.663387335907003</v>
+        <v>-0.2637648507536028</v>
+      </c>
+      <c r="J36">
+        <v>-1.848547646964931</v>
+      </c>
+      <c r="K36">
+        <v>-0.9013296832945341</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1816,25 +1825,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.3189952729606063</v>
       </c>
       <c r="C37">
-        <v>1.57025309421364</v>
+        <v>2.899875010410938</v>
       </c>
       <c r="D37">
-        <v>0.1584050862810353</v>
+        <v>0.5749157010554742</v>
       </c>
       <c r="E37">
-        <v>0.4592630421426516</v>
+        <v>1.63017471432903</v>
       </c>
       <c r="F37">
-        <v>1.034962581149145</v>
+        <v>1.84846478718724</v>
       </c>
       <c r="G37">
-        <v>2.110702418001366</v>
+        <v>2.939197584809889</v>
       </c>
       <c r="H37">
-        <v>1.66889824669775</v>
+        <v>3.35592090298509</v>
+      </c>
+      <c r="I37">
+        <v>1.771138106773762</v>
+      </c>
+      <c r="J37">
+        <v>2.718356070444159</v>
+      </c>
+      <c r="K37">
+        <v>2.63866197424673</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,22 +1860,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2.580879737450331</v>
       </c>
       <c r="C38">
-        <v>-1.411848007932605</v>
+        <v>0.2559204280948679</v>
       </c>
       <c r="D38">
-        <v>-1.110990052070989</v>
+        <v>1.311179441368424</v>
       </c>
       <c r="E38">
-        <v>-0.5352905130644956</v>
+        <v>1.529469514226633</v>
       </c>
       <c r="F38">
-        <v>0.5404493237877259</v>
+        <v>2.620202311849283</v>
       </c>
       <c r="G38">
-        <v>0.09864515248411015</v>
+        <v>3.036925630024484</v>
+      </c>
+      <c r="H38">
+        <v>1.452142833813156</v>
+      </c>
+      <c r="I38">
+        <v>2.399360797483553</v>
+      </c>
+      <c r="J38">
+        <v>2.319666701286124</v>
+      </c>
+      <c r="K38">
+        <v>2.031122027629067</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1865,19 +1895,34 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-2.324959309355464</v>
       </c>
       <c r="C39">
-        <v>0.3008579558616162</v>
+        <v>-1.269700296081908</v>
       </c>
       <c r="D39">
-        <v>0.8765574948681092</v>
+        <v>-1.051410223223698</v>
       </c>
       <c r="E39">
-        <v>1.952297331720331</v>
+        <v>0.03932257439895182</v>
       </c>
       <c r="F39">
-        <v>1.510493160416715</v>
+        <v>0.4560458925741526</v>
+      </c>
+      <c r="G39">
+        <v>-1.128736903637176</v>
+      </c>
+      <c r="H39">
+        <v>-0.1815189399667787</v>
+      </c>
+      <c r="I39">
+        <v>-0.2612130361642073</v>
+      </c>
+      <c r="J39">
+        <v>-0.5497577098212645</v>
+      </c>
+      <c r="K39">
+        <v>-0.5592990347223861</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1885,16 +1930,34 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1.055259013273556</v>
       </c>
       <c r="C40">
-        <v>0.575699539006493</v>
+        <v>1.273549086131766</v>
       </c>
       <c r="D40">
-        <v>1.651439375858714</v>
+        <v>2.364281883754416</v>
       </c>
       <c r="E40">
-        <v>1.209635204555099</v>
+        <v>2.781005201929616</v>
+      </c>
+      <c r="F40">
+        <v>1.196222405718288</v>
+      </c>
+      <c r="G40">
+        <v>2.143440369388685</v>
+      </c>
+      <c r="H40">
+        <v>2.063746273191256</v>
+      </c>
+      <c r="I40">
+        <v>1.775201599534199</v>
+      </c>
+      <c r="J40">
+        <v>1.765660274633077</v>
+      </c>
+      <c r="K40">
+        <v>0.7463330244572151</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1902,13 +1965,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.2182900728582098</v>
       </c>
       <c r="C41">
-        <v>1.075739836852222</v>
+        <v>1.30902287048086</v>
       </c>
       <c r="D41">
-        <v>0.6339356655486057</v>
+        <v>1.72574618865606</v>
+      </c>
+      <c r="E41">
+        <v>0.140963392444732</v>
+      </c>
+      <c r="F41">
+        <v>1.088181356115129</v>
+      </c>
+      <c r="G41">
+        <v>1.0084872599177</v>
+      </c>
+      <c r="H41">
+        <v>0.7199425862606432</v>
+      </c>
+      <c r="I41">
+        <v>0.7104012613595216</v>
+      </c>
+      <c r="J41">
+        <v>-0.3089259888163407</v>
+      </c>
+      <c r="K41">
+        <v>-0.2871171714278518</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1916,10 +2000,34 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1.09073279762265</v>
       </c>
       <c r="C42">
-        <v>-0.4418041713036158</v>
+        <v>1.507456115797851</v>
+      </c>
+      <c r="D42">
+        <v>-0.07732668041347779</v>
+      </c>
+      <c r="E42">
+        <v>0.8698912832569192</v>
+      </c>
+      <c r="F42">
+        <v>0.7901971870594906</v>
+      </c>
+      <c r="G42">
+        <v>0.5016525134024334</v>
+      </c>
+      <c r="H42">
+        <v>0.4921111885013119</v>
+      </c>
+      <c r="I42">
+        <v>-0.5272160616745505</v>
+      </c>
+      <c r="J42">
+        <v>-0.5054072442860615</v>
+      </c>
+      <c r="K42">
+        <v>1.033562986125958</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1927,55 +2035,217 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.4167233181752008</v>
+      </c>
+      <c r="C43">
+        <v>-1.168059478036128</v>
+      </c>
+      <c r="D43">
+        <v>-0.2208415143657305</v>
+      </c>
+      <c r="E43">
+        <v>-0.3005356105631591</v>
+      </c>
+      <c r="F43">
+        <v>-0.5890802842202163</v>
+      </c>
+      <c r="G43">
+        <v>-0.5986216091213379</v>
+      </c>
+      <c r="H43">
+        <v>-1.6179488592972</v>
+      </c>
+      <c r="I43">
+        <v>-1.596140041908711</v>
+      </c>
+      <c r="J43">
+        <v>-0.05716981149669209</v>
+      </c>
+      <c r="K43">
+        <v>-1.009170151698186</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>-1.584782796211328</v>
+      </c>
+      <c r="C44">
+        <v>-0.6375648325409313</v>
+      </c>
+      <c r="D44">
+        <v>-0.7172589287383599</v>
+      </c>
+      <c r="E44">
+        <v>-1.005803602395417</v>
+      </c>
+      <c r="F44">
+        <v>-1.015344927296539</v>
+      </c>
+      <c r="G44">
+        <v>-2.034672177472401</v>
+      </c>
+      <c r="H44">
+        <v>-2.012863360083912</v>
+      </c>
+      <c r="I44">
+        <v>-0.4738931296718929</v>
+      </c>
+      <c r="J44">
+        <v>-1.425893469873386</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>0.947217963670397</v>
+      </c>
+      <c r="C45">
+        <v>0.8675238674729684</v>
+      </c>
+      <c r="D45">
+        <v>0.5789791938159112</v>
+      </c>
+      <c r="E45">
+        <v>0.5694378689147896</v>
+      </c>
+      <c r="F45">
+        <v>-0.4498893812610727</v>
+      </c>
+      <c r="G45">
+        <v>-0.4280805638725838</v>
+      </c>
+      <c r="H45">
+        <v>1.110889666539435</v>
+      </c>
+      <c r="I45">
+        <v>0.1588893263379418</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.07969409619742857</v>
+      </c>
+      <c r="C46">
+        <v>-0.3682387698544858</v>
+      </c>
+      <c r="D46">
+        <v>-0.3777800947556074</v>
+      </c>
+      <c r="E46">
+        <v>-1.39710734493147</v>
+      </c>
+      <c r="F46">
+        <v>-1.375298527542981</v>
+      </c>
+      <c r="G46">
+        <v>0.1636717028690384</v>
+      </c>
+      <c r="H46">
+        <v>-0.7883286373324552</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>-0.2885446736570572</v>
+      </c>
+      <c r="C47">
+        <v>-0.2980859985581788</v>
+      </c>
+      <c r="D47">
+        <v>-1.317413248734041</v>
+      </c>
+      <c r="E47">
+        <v>-1.295604431345552</v>
+      </c>
+      <c r="F47">
+        <v>0.243365799066467</v>
+      </c>
+      <c r="G47">
+        <v>-0.7086345411350266</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>-0.009541324901121584</v>
+      </c>
+      <c r="C48">
+        <v>-1.028868575076984</v>
+      </c>
+      <c r="D48">
+        <v>-1.007059757688495</v>
+      </c>
+      <c r="E48">
+        <v>0.5319104727235242</v>
+      </c>
+      <c r="F48">
+        <v>-0.4200898674779694</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>-1.019327250175862</v>
+      </c>
+      <c r="C49">
+        <v>-0.9975184327873734</v>
+      </c>
+      <c r="D49">
+        <v>0.5414517976246458</v>
+      </c>
+      <c r="E49">
+        <v>-0.4105485425768478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>0.02180881738848894</v>
+      </c>
+      <c r="C50">
+        <v>1.560779047800508</v>
+      </c>
+      <c r="D50">
+        <v>0.6087787075990145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1.538970230412019</v>
+      </c>
+      <c r="C51">
+        <v>0.5869698902105256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>-0.9520003402014936</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>

--- a/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Data/naive_err/AVERAGE_1_9_qoq_errors_first_eval.xlsx
@@ -614,21 +614,6 @@
       <c r="F2">
         <v>0.9520335363487078</v>
       </c>
-      <c r="G2">
-        <v>2.628764577266821</v>
-      </c>
-      <c r="H2">
-        <v>2.311804596319448</v>
-      </c>
-      <c r="I2">
-        <v>-0.3645642242167779</v>
-      </c>
-      <c r="J2">
-        <v>2.364071468851137</v>
-      </c>
-      <c r="K2">
-        <v>-0.4880015757602221</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -655,15 +640,6 @@
       <c r="H3">
         <v>3.381041699952164</v>
       </c>
-      <c r="I3">
-        <v>0.5289686553408048</v>
-      </c>
-      <c r="J3">
-        <v>-0.02751459146936908</v>
-      </c>
-      <c r="K3">
-        <v>1.510893826230975</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -684,21 +660,6 @@
       <c r="F4">
         <v>2.790221814458637</v>
       </c>
-      <c r="G4">
-        <v>-0.06185123015272209</v>
-      </c>
-      <c r="H4">
-        <v>-0.618334476962896</v>
-      </c>
-      <c r="I4">
-        <v>0.920073940737448</v>
-      </c>
-      <c r="J4">
-        <v>1.483708098969917</v>
-      </c>
-      <c r="K4">
-        <v>0.2402435473108151</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -725,15 +686,6 @@
       <c r="H5">
         <v>-1.571206823904404</v>
       </c>
-      <c r="I5">
-        <v>-2.814671375563506</v>
-      </c>
-      <c r="J5">
-        <v>-1.934840982136873</v>
-      </c>
-      <c r="K5">
-        <v>-2.134840982136873</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -754,21 +706,6 @@
       <c r="F6">
         <v>1.422121977579195</v>
       </c>
-      <c r="G6">
-        <v>0.178657425920093</v>
-      </c>
-      <c r="H6">
-        <v>1.058487819346726</v>
-      </c>
-      <c r="I6">
-        <v>0.8584878193467259</v>
-      </c>
-      <c r="J6">
-        <v>1.028120137680943</v>
-      </c>
-      <c r="K6">
-        <v>1.558487819346726</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -795,15 +732,6 @@
       <c r="H7">
         <v>1.151557489224387</v>
       </c>
-      <c r="I7">
-        <v>1.68192517089017</v>
-      </c>
-      <c r="J7">
-        <v>1.786487819654653</v>
-      </c>
-      <c r="K7">
-        <v>1.38192517089017</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -824,21 +752,6 @@
       <c r="F8">
         <v>0.1696323183342173</v>
       </c>
-      <c r="G8">
-        <v>0.7</v>
-      </c>
-      <c r="H8">
-        <v>0.8045626487644824</v>
-      </c>
-      <c r="I8">
-        <v>0.4</v>
-      </c>
-      <c r="J8">
-        <v>0.4184720660046907</v>
-      </c>
-      <c r="K8">
-        <v>0.390764013820737</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -865,15 +778,6 @@
       <c r="H9">
         <v>1.098302459431324</v>
       </c>
-      <c r="I9">
-        <v>1.07059440724737</v>
-      </c>
-      <c r="J9">
-        <v>0.6934828973693072</v>
-      </c>
-      <c r="K9">
-        <v>0.38341059906206</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -894,21 +798,6 @@
       <c r="F10">
         <v>0.4184720660046907</v>
       </c>
-      <c r="G10">
-        <v>0.390764013820737</v>
-      </c>
-      <c r="H10">
-        <v>0.01365250394267431</v>
-      </c>
-      <c r="I10">
-        <v>-0.2964197943645729</v>
-      </c>
-      <c r="J10">
-        <v>0.7183250015702015</v>
-      </c>
-      <c r="K10">
-        <v>-1.452186157158073</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -935,15 +824,6 @@
       <c r="H11">
         <v>0.0183250015702015</v>
       </c>
-      <c r="I11">
-        <v>-2.152186157158073</v>
-      </c>
-      <c r="J11">
-        <v>-0.1273072778425927</v>
-      </c>
-      <c r="K11">
-        <v>-0.1270022392231624</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -964,21 +844,6 @@
       <c r="F12">
         <v>0.3183250015702015</v>
       </c>
-      <c r="G12">
-        <v>-1.852186157158073</v>
-      </c>
-      <c r="H12">
-        <v>0.1726927221574073</v>
-      </c>
-      <c r="I12">
-        <v>0.1729977607768376</v>
-      </c>
-      <c r="J12">
-        <v>-1.050807574684342</v>
-      </c>
-      <c r="K12">
-        <v>-0.5056288600178789</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -1005,15 +870,6 @@
       <c r="H13">
         <v>-1.041571588505079</v>
       </c>
-      <c r="I13">
-        <v>-0.4963928738386159</v>
-      </c>
-      <c r="J13">
-        <v>0.2277163024758835</v>
-      </c>
-      <c r="K13">
-        <v>-0.7142981232558725</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1034,21 +890,6 @@
       <c r="F14">
         <v>-0.354387780319769</v>
       </c>
-      <c r="G14">
-        <v>0.190790934346694</v>
-      </c>
-      <c r="H14">
-        <v>0.9149001106611934</v>
-      </c>
-      <c r="I14">
-        <v>-0.02711431507056261</v>
-      </c>
-      <c r="J14">
-        <v>-0.1549686731026156</v>
-      </c>
-      <c r="K14">
-        <v>-0.1102536290315754</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1075,15 +916,6 @@
       <c r="H15">
         <v>1.000797689690885</v>
       </c>
-      <c r="I15">
-        <v>1.045512733761925</v>
-      </c>
-      <c r="J15">
-        <v>1.991008918648234</v>
-      </c>
-      <c r="K15">
-        <v>1.370258333097198</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1104,21 +936,6 @@
       <c r="F16">
         <v>-1.024386228244026</v>
       </c>
-      <c r="G16">
-        <v>-0.9796711841729859</v>
-      </c>
-      <c r="H16">
-        <v>-0.03417499928667669</v>
-      </c>
-      <c r="I16">
-        <v>-0.6549255848377129</v>
-      </c>
-      <c r="J16">
-        <v>-0.8359242736770653</v>
-      </c>
-      <c r="K16">
-        <v>-0.337636823720473</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1145,15 +962,6 @@
       <c r="H17">
         <v>-0.1572976528823489</v>
       </c>
-      <c r="I17">
-        <v>0.3409897970742435</v>
-      </c>
-      <c r="J17">
-        <v>-0.6590718784000842</v>
-      </c>
-      <c r="K17">
-        <v>0.07390479252633497</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1186,9 +994,6 @@
       <c r="J18">
         <v>0.5876170662866316</v>
       </c>
-      <c r="K18">
-        <v>0.3378071961977303</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1215,15 +1020,6 @@
       <c r="H19">
         <v>0.6707563802476444</v>
       </c>
-      <c r="I19">
-        <v>0.4209465101587431</v>
-      </c>
-      <c r="J19">
-        <v>-0.06966353311896967</v>
-      </c>
-      <c r="K19">
-        <v>0.006673423396148292</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1256,9 +1052,6 @@
       <c r="J20">
         <v>0.4732036644786177</v>
       </c>
-      <c r="K20">
-        <v>0.2819278240608753</v>
-      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
@@ -1285,15 +1078,6 @@
       <c r="H21">
         <v>0.1559149033613778</v>
       </c>
-      <c r="I21">
-        <v>-0.03536093705636462</v>
-      </c>
-      <c r="J21">
-        <v>-0.3232148178475143</v>
-      </c>
-      <c r="K21">
-        <v>0.568969322897556</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1326,9 +1110,6 @@
       <c r="J22">
         <v>-0.2866313096791941</v>
       </c>
-      <c r="K22">
-        <v>1.931724067491544</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1358,12 +1139,6 @@
       <c r="I23">
         <v>-0.5824383340222341</v>
       </c>
-      <c r="J23">
-        <v>1.635917043148504</v>
-      </c>
-      <c r="K23">
-        <v>7.366961176355511</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1390,15 +1165,6 @@
       <c r="H24">
         <v>-0.3326284639333328</v>
       </c>
-      <c r="I24">
-        <v>1.885726913237405</v>
-      </c>
-      <c r="J24">
-        <v>7.616771046444412</v>
-      </c>
-      <c r="K24">
-        <v>-4.27960679849052</v>
-      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
@@ -1466,9 +1232,6 @@
       <c r="J26">
         <v>1.067225639135418</v>
       </c>
-      <c r="K26">
-        <v>2.06956845314902</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1498,12 +1261,6 @@
       <c r="I27">
         <v>0.2759497987176758</v>
       </c>
-      <c r="J27">
-        <v>1.278292612731277</v>
-      </c>
-      <c r="K27">
-        <v>-2.341393141007416</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1530,15 +1287,6 @@
       <c r="H28">
         <v>0.4672256391354182</v>
       </c>
-      <c r="I28">
-        <v>1.46956845314902</v>
-      </c>
-      <c r="J28">
-        <v>-2.150117300589673</v>
-      </c>
-      <c r="K28">
-        <v>-1.831122027629067</v>
-      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
@@ -1606,9 +1354,6 @@
       <c r="J30">
         <v>0.1454274498673439</v>
       </c>
-      <c r="K30">
-        <v>-2.17953185948812</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1638,12 +1383,6 @@
       <c r="I31">
         <v>1.268113086992003</v>
       </c>
-      <c r="J31">
-        <v>-1.056846222363461</v>
-      </c>
-      <c r="K31">
-        <v>-0.001587209089905173</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1670,15 +1409,6 @@
       <c r="H32">
         <v>-0.9502422901787355</v>
       </c>
-      <c r="I32">
-        <v>-3.275201599534199</v>
-      </c>
-      <c r="J32">
-        <v>-2.219942586260643</v>
-      </c>
-      <c r="K32">
-        <v>-2.001652513402433</v>
-      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
@@ -1746,9 +1476,6 @@
       <c r="J34">
         <v>5.254413995948141</v>
       </c>
-      <c r="K34">
-        <v>5.671137314123342</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1778,12 +1505,6 @@
       <c r="I35">
         <v>0.3218546450847981</v>
       </c>
-      <c r="J35">
-        <v>0.7385779632599989</v>
-      </c>
-      <c r="K35">
-        <v>-0.8462048329513294</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1810,15 +1531,6 @@
       <c r="H36">
         <v>-0.6804881689288036</v>
       </c>
-      <c r="I36">
-        <v>-0.2637648507536028</v>
-      </c>
-      <c r="J36">
-        <v>-1.848547646964931</v>
-      </c>
-      <c r="K36">
-        <v>-0.9013296832945341</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
@@ -1886,9 +1598,6 @@
       <c r="J38">
         <v>2.319666701286124</v>
       </c>
-      <c r="K38">
-        <v>2.031122027629067</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1918,12 +1627,6 @@
       <c r="I39">
         <v>-0.2612130361642073</v>
       </c>
-      <c r="J39">
-        <v>-0.5497577098212645</v>
-      </c>
-      <c r="K39">
-        <v>-0.5592990347223861</v>
-      </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
@@ -1950,15 +1653,6 @@
       <c r="H40">
         <v>2.063746273191256</v>
       </c>
-      <c r="I40">
-        <v>1.775201599534199</v>
-      </c>
-      <c r="J40">
-        <v>1.765660274633077</v>
-      </c>
-      <c r="K40">
-        <v>0.7463330244572151</v>
-      </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
@@ -2026,9 +1720,6 @@
       <c r="J42">
         <v>-0.5054072442860615</v>
       </c>
-      <c r="K42">
-        <v>1.033562986125958</v>
-      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
@@ -2058,12 +1749,6 @@
       <c r="I43">
         <v>-1.596140041908711</v>
       </c>
-      <c r="J43">
-        <v>-0.05716981149669209</v>
-      </c>
-      <c r="K43">
-        <v>-1.009170151698186</v>
-      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
@@ -2089,12 +1774,6 @@
       </c>
       <c r="H44">
         <v>-2.012863360083912</v>
-      </c>
-      <c r="I44">
-        <v>-0.4738931296718929</v>
-      </c>
-      <c r="J44">
-        <v>-1.425893469873386</v>
       </c>
     </row>
     <row r="45" spans="1:11">
